--- a/documents/接口文档/图片-接口文档.xlsx
+++ b/documents/接口文档/图片-接口文档.xlsx
@@ -15,18 +15,20 @@
     <sheet name="接口描述" sheetId="1" r:id="rId1"/>
     <sheet name="错误码" sheetId="2" r:id="rId2"/>
     <sheet name="接口清单" sheetId="3" r:id="rId3"/>
-    <sheet name="404.获取第三方社区的设置信息" sheetId="128" r:id="rId4"/>
-    <sheet name="405.修改第三方社区的设置" sheetId="127" r:id="rId5"/>
-    <sheet name="406.流量设置" sheetId="129" r:id="rId6"/>
-    <sheet name="版本更新检测" sheetId="117" r:id="rId7"/>
-    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="套图列表" sheetId="128" r:id="rId4"/>
+    <sheet name="图片列表" sheetId="127" r:id="rId5"/>
+    <sheet name="关注" sheetId="130" r:id="rId6"/>
+    <sheet name="点赞" sheetId="131" r:id="rId7"/>
+    <sheet name="406.流量设置" sheetId="129" r:id="rId8"/>
+    <sheet name="版本更新检测" sheetId="117" r:id="rId9"/>
+    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="312">
   <si>
     <t>接口描述</t>
   </si>
@@ -737,64 +739,7 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>/community/user/setThirdPartConfig.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>405.修改第三方社区的设置</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>404.获取第三方社区的设置信息</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/community/user/getThirdPartConfig.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>list.type</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>返回时间</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>list.flag</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为第三方社区登录的，0：否，1：是</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": "1000",
-    "msg": "success",
-    "time": "20160825105813",
-    "data": {
-            "list":[{
-                    "type":1,
-                    "flag":1
-            },{
-                    "type":2,
-                    "flag":1
-            }]
-    }
-}</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方社区的类型，1：微信，2：QQ</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方社区登录开关，0:关，1：开</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
@@ -914,10 +859,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>token:请求令牌,tt:加密用的随机码</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>第三方登录</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -1029,91 +970,896 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
+    <t>/photo/fans.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/updatePersonalInfo.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/personalInfo.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/pubishComments.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付回调</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的钱包</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/search.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/pay.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/payCallBack.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/wallet.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/payRecords.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单信息</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/balance.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/orders.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/records.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>token:请求令牌,tt:加密用的随机码,uid:登录用户id</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
     <t>/photo/photoGroup.action</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/fans.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/updatePersonalInfo.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/personalInfo.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/pubishComments.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付回调</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的钱包</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/search.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/pay.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/payCallBack.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/wallet.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/payRecords.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单信息</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/balance.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/orders.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买记录</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/records.action</t>
+    <t>pageIndex</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页显示记录数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>abroad</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义标签</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为自定义标签 0：默认，非自定义 1：自定义</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为海外版本 0：国内版 1：国外版</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>当type类型为默认的时候，需要此参数海外标签</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.publishTime</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图发布时间</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.shareCount</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者被分享的次数</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.sale</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.groupId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图id</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.price</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图实际购买价格</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>打折后的价格</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.coins</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图定价</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>未打折</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.totalCoins</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图所有图片的总定价</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.userId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.headImg</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.nickName</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.isLike</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.isFollowed</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图总数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.totalCount</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图中的照片的总数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注发布者</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为未关注;false:未关注 true:已关注</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否点赞发布者</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为未点赞;false:未点赞 true:已点赞</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.isBuy</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为未购买;false:未购买 true:已购买</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.publishTime</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.sale</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.imgUrl</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.price</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.headImg</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.coins</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.nickName</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.isLike</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.isFree</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.photoId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.userId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.isFollowed</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.shareCount</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片发布时间</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：YYYYMMDDHHMMSS（24小时制）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图折扣</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片折扣</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片urll</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的购买价格</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者用户昵称</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者用户头像</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者用户ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的定价</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片是否免费</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为收费;false:收费 true:免费</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.isBuy</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.imgUrl</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.isFree</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片总数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPage</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图显示总页数</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.totalPage</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片显示总页数</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "totalCount": 14,
+        "list": [
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000012e4e0c4f3c8c18a88ca55f26fa",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000014a8cc34799b2cf5af38009ed19",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000041cfd6f49a8bbb80e586d581de1",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.8,
+                "groupId": "0004c8748gtf434697add98d47cde5f",
+                "price": 13.78,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 17.23,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000013eaaa914e5a8c35b76b1ecbb91a",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000015e4f7a747bfab050f6e2e30b386",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00001b536889420f9daea97f7e23981e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.78,
+                "groupId": "00074503148b464385adbb1de8115b89",
+                "price": 21.33,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 27.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000202382e048bc9d8eeecacc9c3a9d",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002173097e4d61b746a468f1d3201e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002407af984000a1f37e5b4454926e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.68,
+                "groupId": "000746ffe26340548289b153e633f1d5",
+                "price": 17.23,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 25.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002a7b8ec741fe9e3bd3ac385cfe54",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002d41062d4d73975d8e3e7216f9ee",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "coins": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000032a252354360a6bb59d13e218f0e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.75,
+                "groupId": "000747d6363843308f1078007a7612c5",
+                "price": 22.01,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 29.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            }
+        ],
+        "totalPage": 4
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "totalCount": 9,
+        "totalCoins": 45,
+        "list": [
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "0000012e4e0c4f3c8c18a88ca55f26fa",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "0000014a8cc34799b2cf5af38009ed19",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "0000041cfd6f49a8bbb80e586d581de1",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "0000043ac9714e66a81fd9205c1e4a88",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "00000474f66c43d68a41a7b566526e02",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "00000704ab6d4f58a187e7b740b1fdea",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "00000be7d62c46f3974227ae260927fd",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "00000ff5656e403bbd482b428caf6184",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            },
+            {
+                "isBuy": false,
+                "publishTime": 1510640418000,
+                "shareCount": 18238,
+                "sale": 1,
+                "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                "price": 5,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 5,
+                "nickName": "用户1267",
+                "isLike": false,
+                "isFree": true,
+                "photoId": "00001048094341c2988ab814b80e1c9c",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false
+            }
+        ],
+        "totalPage": 1
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片是否购买</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813"
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:取消关注 1:关注</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>被关注的用户ID</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -3032,7 +3778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3240,6 +3986,57 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3249,30 +4046,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3426,20 +4199,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="324">
@@ -4142,7 +4942,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4154,10 +4954,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="93"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
@@ -4203,8 +5003,8 @@
       <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="83" t="s">
-        <v>183</v>
+      <c r="B8" s="82" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4212,12 +5012,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="62" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>13</v>
@@ -4225,18 +5025,18 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="62" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="62" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4244,7 +5044,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,7 +5052,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4261,6 +5061,638 @@
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A16:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="52.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="94"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="94"/>
+      <c r="C5" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="94"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="94"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="94"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="94"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="94"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="94"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="94"/>
+      <c r="C12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="94"/>
+      <c r="C13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="94"/>
+      <c r="C14" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="137"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="94"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="129"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="100"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="99"/>
+      <c r="C21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="99"/>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="100"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="99"/>
+      <c r="C23" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="100"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="99"/>
+      <c r="C24" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="127"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="99"/>
+      <c r="C25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="99"/>
+      <c r="C26" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="99"/>
+      <c r="C27" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+    </row>
+    <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
+    </row>
+    <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="109"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F27 G5:G12">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4284,11 +5716,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
@@ -7095,7 +8527,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B25" activeCellId="1" sqref="B14 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7111,498 +8543,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="77" t="s">
+      <c r="A2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="78">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="C3" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="78">
+        <v>2</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="C4" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="78">
+        <v>3</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="78">
+        <v>4</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="78">
+        <v>5</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="78">
+        <v>6</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="78">
+        <v>7</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="84">
+        <v>8</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="84">
+        <v>9</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="78">
+        <v>10</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="78">
+        <v>11</v>
+      </c>
+      <c r="B13" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="78">
+        <v>12</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="78">
+        <v>13</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="78">
+        <v>14</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="78">
+        <v>15</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="78">
+        <v>16</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="78">
+        <v>17</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="78">
         <v>18</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
-        <v>1</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="B20" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="78">
+        <v>19</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="80" t="s">
+      <c r="G21" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="78">
+        <v>20</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="78">
+        <v>21</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G23" s="80" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="79">
-        <v>2</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="79">
-        <v>3</v>
-      </c>
-      <c r="B5" s="82" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="78">
+        <v>22</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="79">
-        <v>4</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
-        <v>5</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="79">
-        <v>6</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="79">
-        <v>7</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="136">
-        <v>8</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="139" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="136">
-        <v>9</v>
-      </c>
-      <c r="B11" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="139" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="79">
-        <v>10</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="79">
-        <v>11</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="79">
-        <v>12</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="79">
-        <v>13</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="79">
-        <v>14</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="79">
-        <v>15</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="79">
-        <v>16</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="79">
-        <v>17</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="79">
-        <v>18</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="79">
-        <v>19</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="79">
-        <v>20</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="135" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="79">
-        <v>21</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="135" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="79">
-        <v>22</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="81" t="s">
+      <c r="E24" s="75"/>
+      <c r="F24" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="80" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7611,6 +9043,12 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" location="套图列表!A1" display="套图列表"/>
+    <hyperlink ref="B9" location="图片列表!A1" display="图片列表"/>
+    <hyperlink ref="B12" location="关注!A1" display="关注"/>
+    <hyperlink ref="B13" location="点赞!A1" display="点赞"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7619,23 +9057,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
-    <col min="2" max="2" width="12.25" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="75" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="2" width="20.625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="74" customWidth="1"/>
+    <col min="4" max="7" width="20.625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -7643,47 +9076,47 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="86"/>
-      <c r="C3" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="86"/>
-      <c r="C4" s="89" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="95"/>
+      <c r="C3" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="95"/>
+      <c r="C4" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="86"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="95"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -7703,225 +9136,782 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="90"/>
+      <c r="C6" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="90"/>
+      <c r="C8" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="90"/>
+      <c r="C9" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="99"/>
+      <c r="C11" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E11" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F11" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H11" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
-      <c r="C8" s="72" t="s">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="99"/>
+      <c r="C12" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D12" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G12" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H12" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
-      <c r="C9" s="72" t="s">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D13" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G13" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
-      <c r="C10" s="72" t="s">
+      <c r="H13" s="72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D14" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G14" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="90"/>
-      <c r="C11" s="92" t="s">
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
-      <c r="C13" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="90"/>
-      <c r="C14" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="90"/>
-      <c r="C15" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="90"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="90"/>
-      <c r="C21" s="70" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+    </row>
+    <row r="16" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="89"/>
+    </row>
+    <row r="17" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" s="89"/>
+    </row>
+    <row r="20" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="150" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="89"/>
+    </row>
+    <row r="21" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="99"/>
+      <c r="C21" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="99"/>
+      <c r="C22" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="99"/>
+      <c r="C23" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="99"/>
+      <c r="C24" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="89"/>
+    </row>
+    <row r="25" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="99"/>
+      <c r="C25" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="99"/>
+      <c r="C26" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="89"/>
+    </row>
+    <row r="27" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="99"/>
+      <c r="C27" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="89"/>
+    </row>
+    <row r="28" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="99"/>
+      <c r="C28" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="99"/>
+      <c r="C29" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="99"/>
+      <c r="C30" s="150" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="89"/>
+    </row>
+    <row r="31" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="99"/>
+      <c r="C31" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="89"/>
+    </row>
+    <row r="32" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="99"/>
+      <c r="C32" s="150" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="99"/>
+      <c r="C33" s="150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="99"/>
+      <c r="C34" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" s="89"/>
+    </row>
+    <row r="35" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="99"/>
+      <c r="C35" s="150" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="89"/>
+    </row>
+    <row r="36" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="99"/>
+      <c r="C36" s="150" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="89"/>
+    </row>
+    <row r="37" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="99"/>
+      <c r="C37" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" s="89"/>
+    </row>
+    <row r="38" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="99"/>
+      <c r="C38" s="150" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="89"/>
+    </row>
+    <row r="39" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="99"/>
+      <c r="C39" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39" s="89"/>
+    </row>
+    <row r="40" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="99"/>
+      <c r="C40" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="99"/>
+      <c r="C41" s="150" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="89" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="99"/>
+      <c r="C42" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="89"/>
+    </row>
+    <row r="43" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="99"/>
+      <c r="C43" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="89"/>
+    </row>
+    <row r="44" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="99"/>
+      <c r="C44" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="99"/>
+      <c r="C45" s="150" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="89"/>
+    </row>
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="99"/>
+      <c r="C46" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+    </row>
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="99"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="99"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+    </row>
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="99"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+    </row>
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="99"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+    </row>
+    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="99"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+    </row>
+    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="99"/>
+      <c r="C52" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D52" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C15:H20"/>
-    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B10:B52"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C46:H51"/>
+    <mergeCell ref="D52:H52"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -7931,12 +9921,12 @@
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F14">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H8" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="H12" location="错误码!A1" display="错误码"/>
     <hyperlink ref="A1" location="接口清单!B7" display="返回清单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7946,23 +9936,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
-    <col min="2" max="2" width="12.25" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="75" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="7" width="20.625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -7970,47 +9953,47 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="86"/>
-      <c r="C3" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="86"/>
-      <c r="C4" s="89" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="95"/>
+      <c r="C3" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="95"/>
+      <c r="C4" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="86"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="95"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -8030,55 +10013,666 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="86"/>
-      <c r="C6" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="90"/>
+      <c r="C6" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="90"/>
+      <c r="C7" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="90"/>
+      <c r="C8" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="99"/>
+      <c r="C10" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="99"/>
+      <c r="C11" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="99"/>
+      <c r="C12" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+    </row>
+    <row r="15" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="89"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="89"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="150" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="150" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="89"/>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" s="89"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="99"/>
+      <c r="C21" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="99"/>
+      <c r="C22" s="150" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="99"/>
+      <c r="C23" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="89"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="99"/>
+      <c r="C24" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="89"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="99"/>
+      <c r="C25" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="99"/>
+      <c r="C26" s="150" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="89" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="99"/>
+      <c r="C27" s="150" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27" s="89"/>
+    </row>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="99"/>
+      <c r="C28" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="89"/>
+    </row>
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="99"/>
+      <c r="C29" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="99"/>
+      <c r="C30" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="89"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="99"/>
+      <c r="C31" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="99"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="99"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="99"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="99"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="99"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="99"/>
+      <c r="C37" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B9:B37"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C31:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="H11" location="错误码!A1" display="错误码"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="95"/>
+      <c r="C3" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="95"/>
+      <c r="C4" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="95"/>
+      <c r="C5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="95"/>
+      <c r="C6" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="73"/>
-      <c r="C7" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74" t="s">
+      <c r="G6" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="95"/>
+      <c r="C7" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="90" t="s">
+      <c r="G7" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="91"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="99"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -8098,140 +10692,140 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
-      <c r="C10" s="72" t="s">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="99"/>
+      <c r="C10" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="88" t="s">
         <v>61</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="90"/>
-      <c r="C11" s="72" t="s">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="99"/>
+      <c r="C11" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72" t="s">
+      <c r="E11" s="88"/>
+      <c r="F11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="72" t="s">
+      <c r="G11" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
-      <c r="C12" s="72" t="s">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="99"/>
+      <c r="C12" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="88" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
-      <c r="C13" s="92" t="s">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="90"/>
-      <c r="C14" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="90"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
-      <c r="C20" s="70" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8240,7 +10834,7 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H19"/>
     <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
@@ -8255,14 +10849,350 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
-    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="A1" location="接口清单!B7" display="返回清单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="92"/>
+      <c r="B2" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="92"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="92"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="91"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="92"/>
+      <c r="B8" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="92"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="92"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="92"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="92"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="92"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="92"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="92"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="92"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="92"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="A1" location="接口清单!B7" display="返回清单"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -8272,15 +11202,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
-    <col min="2" max="2" width="12.25" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="75" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="2" width="12.25" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="74" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="74" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="74" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="74" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -8289,46 +11219,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="86"/>
-      <c r="C3" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="86"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -8349,54 +11279,54 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="86"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="86"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="74"/>
+      <c r="G7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -8417,7 +11347,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="72" t="s">
         <v>58</v>
       </c>
@@ -8436,7 +11366,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="90"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="72" t="s">
         <v>62</v>
       </c>
@@ -8448,14 +11378,14 @@
         <v>63</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H11" s="72" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="72" t="s">
         <v>66</v>
       </c>
@@ -8472,84 +11402,84 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
-      <c r="C13" s="92" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="90"/>
-      <c r="C14" s="93" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="90"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8580,7 +11510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -8604,51 +11534,51 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="86"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="86"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="86"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -8670,7 +11600,7 @@
       <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="110" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -8684,7 +11614,7 @@
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="102"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="40" t="s">
         <v>78</v>
       </c>
@@ -8704,7 +11634,7 @@
       <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="102"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="17" t="s">
         <v>52</v>
       </c>
@@ -8726,7 +11656,7 @@
       <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="102"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="19" t="s">
         <v>58</v>
       </c>
@@ -8746,7 +11676,7 @@
       <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="102"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
@@ -8766,7 +11696,7 @@
       <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="102"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="19" t="s">
         <v>66</v>
       </c>
@@ -8784,19 +11714,19 @@
       <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="102"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="111"/>
+      <c r="C13" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="102"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="23" t="s">
         <v>81</v>
       </c>
@@ -8814,7 +11744,7 @@
       <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="102"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="23" t="s">
         <v>83</v>
       </c>
@@ -8832,7 +11762,7 @@
       <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="102"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="23" t="s">
         <v>85</v>
       </c>
@@ -8852,7 +11782,7 @@
       <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="102"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="28" t="s">
         <v>87</v>
       </c>
@@ -8872,7 +11802,7 @@
       <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="102"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="63" t="s">
         <v>147</v>
       </c>
@@ -8892,7 +11822,7 @@
       <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:9" s="67" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B19" s="102"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="65" t="s">
         <v>91</v>
       </c>
@@ -8912,7 +11842,7 @@
       <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="102"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="63" t="s">
         <v>142</v>
       </c>
@@ -8930,31 +11860,31 @@
       <c r="I20" s="69"/>
     </row>
     <row r="21" spans="2:9" ht="255" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="102"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
       <c r="I21" s="47"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="103"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="47"/>
     </row>
   </sheetData>
@@ -8983,636 +11913,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A16:XFD29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="52.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="85"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="85"/>
-      <c r="C5" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="85"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="85"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="85"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="85"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="85"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="85"/>
-      <c r="C12" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="85"/>
-      <c r="C13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="85"/>
-      <c r="C14" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="85"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="90"/>
-      <c r="C17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="120"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
-      <c r="C18" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
-      <c r="C19" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
-      <c r="C20" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="90"/>
-      <c r="C21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="90"/>
-      <c r="C22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="90"/>
-      <c r="C23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
-      <c r="C24" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="118"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="90"/>
-      <c r="C25" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="90"/>
-      <c r="C26" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="90"/>
-      <c r="C27" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-    </row>
-    <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
-    </row>
-    <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-    </row>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B29"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-  </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F27 G5:G12">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/documents/接口文档/图片-接口文档.xlsx
+++ b/documents/接口文档/图片-接口文档.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\发行平台\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" tabRatio="759" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="8175" tabRatio="759" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="接口描述" sheetId="1" r:id="rId1"/>
@@ -19,16 +14,19 @@
     <sheet name="图片列表" sheetId="127" r:id="rId5"/>
     <sheet name="关注" sheetId="130" r:id="rId6"/>
     <sheet name="点赞" sheetId="131" r:id="rId7"/>
-    <sheet name="406.流量设置" sheetId="129" r:id="rId8"/>
-    <sheet name="版本更新检测" sheetId="117" r:id="rId9"/>
-    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId10"/>
+    <sheet name="图片购买信息选择" sheetId="129" r:id="rId8"/>
+    <sheet name="余额" sheetId="132" r:id="rId9"/>
+    <sheet name="个人信息修改" sheetId="133" r:id="rId10"/>
+    <sheet name="版本更新检测" sheetId="117" r:id="rId11"/>
+    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:J19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="337">
   <si>
     <t>接口描述</t>
   </si>
@@ -660,14 +658,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>/gbox/version/searchVersion.action</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -722,36 +712,7 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>userToken</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户token</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": "1000",
-    "msg": "success",
-    "time": "20160825105813",
-    "data": null
-}</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>返回时间</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>406.流量设置</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/community/user/setFlow.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量类型，1：最佳效果（大图），2：极省流量（小图）</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
@@ -1170,14 +1131,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>list.coins</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>套图定价</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>未打折</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -1270,10 +1223,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>list.photoList.coins</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>list.photoList.nickName</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -1338,10 +1287,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>图片的定价</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>图片是否免费</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -1391,284 +1336,6 @@
   </si>
   <si>
     <t>照片显示总页数</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": "1000",
-    "msg": "success",
-    "time": "20160825105813",
-    "data": {
-        "totalCount": 14,
-        "list": [
-            {
-                "publishTime": "2天前",
-                "photoList": [
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "0000012e4e0c4f3c8c18a88ca55f26fa",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "0000014a8cc34799b2cf5af38009ed19",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "0000041cfd6f49a8bbb80e586d581de1",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    }
-                ],
-                "shareCount": 18238,
-                "sale": 0.8,
-                "groupId": "0004c8748gtf434697add98d47cde5f",
-                "price": 13.78,
-                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                "coins": 17.23,
-                "nickName": "用户1267",
-                "isLike": false,
-                "totalCount": 9,
-                "totalCoins": 15,
-                "userId": "00004c879b3d4697add98d47cde5f1d0",
-                "isFollowed": false,
-                "totalPage": 3
-            },
-            {
-                "publishTime": "2天前",
-                "photoList": [
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "000013eaaa914e5a8c35b76b1ecbb91a",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "000015e4f7a747bfab050f6e2e30b386",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "00001b536889420f9daea97f7e23981e",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    }
-                ],
-                "shareCount": 18238,
-                "sale": 0.78,
-                "groupId": "00074503148b464385adbb1de8115b89",
-                "price": 21.33,
-                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                "coins": 27.34,
-                "nickName": "用户1267",
-                "isLike": false,
-                "totalCount": 9,
-                "totalCoins": 15,
-                "userId": "00004c879b3d4697add98d47cde5f1d0",
-                "isFollowed": false,
-                "totalPage": 3
-            },
-            {
-                "publishTime": "2天前",
-                "photoList": [
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "0000202382e048bc9d8eeecacc9c3a9d",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "00002173097e4d61b746a468f1d3201e",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "00002407af984000a1f37e5b4454926e",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    }
-                ],
-                "shareCount": 18238,
-                "sale": 0.68,
-                "groupId": "000746ffe26340548289b153e633f1d5",
-                "price": 17.23,
-                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                "coins": 25.34,
-                "nickName": "用户1267",
-                "isLike": false,
-                "totalCount": 9,
-                "totalCoins": 15,
-                "userId": "00004c879b3d4697add98d47cde5f1d0",
-                "isFollowed": false,
-                "totalPage": 3
-            },
-            {
-                "publishTime": "2天前",
-                "photoList": [
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "00002a7b8ec741fe9e3bd3ac385cfe54",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "00002d41062d4d73975d8e3e7216f9ee",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    },
-                    {
-                        "isBuy": false,
-                        "publishTime": 1510640418000,
-                        "shareCount": 18238,
-                        "sale": 1,
-                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
-                        "price": 5,
-                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                        "coins": 5,
-                        "nickName": "用户1267",
-                        "isLike": false,
-                        "isFree": true,
-                        "photoId": "000032a252354360a6bb59d13e218f0e",
-                        "userId": "00004c879b3d4697add98d47cde5f1d0",
-                        "isFollowed": false
-                    }
-                ],
-                "shareCount": 18238,
-                "sale": 0.75,
-                "groupId": "000747d6363843308f1078007a7612c5",
-                "price": 22.01,
-                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
-                "coins": 29.34,
-                "nickName": "用户1267",
-                "isLike": false,
-                "totalCount": 9,
-                "totalCoins": 15,
-                "userId": "00004c879b3d4697add98d47cde5f1d0",
-                "isFollowed": false,
-                "totalPage": 3
-            }
-        ],
-        "totalPage": 4
-    }
-}</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
@@ -1860,6 +1527,456 @@
   </si>
   <si>
     <t>被关注的用户ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.origPrice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图定价（原价）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.photoList.origPrice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的定价（原价）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "totalCount": 14,
+        "list": [
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000012e4e0c4f3c8c18a88ca55f26fa",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000014a8cc34799b2cf5af38009ed19",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000041cfd6f49a8bbb80e586d581de1",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.8,
+                "groupId": "0004c8748gtf434697add98d47cde5f",
+                "price": 13.78,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "origPrice": 17.23,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000013eaaa914e5a8c35b76b1ecbb91a",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000015e4f7a747bfab050f6e2e30b386",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00001b536889420f9daea97f7e23981e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.78,
+                "groupId": "00074503148b464385adbb1de8115b89",
+                "price": 21.33,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "origPrice": 27.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "0000202382e048bc9d8eeecacc9c3a9d",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002173097e4d61b746a468f1d3201e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002407af984000a1f37e5b4454926e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.68,
+                "groupId": "000746ffe26340548289b153e633f1d5",
+                "price": 17.23,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "origPrice": 25.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            },
+            {
+                "publishTime": "2天前",
+                "photoList": [
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002a7b8ec741fe9e3bd3ac385cfe54",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "00002d41062d4d73975d8e3e7216f9ee",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    },
+                    {
+                        "isBuy": false,
+                        "publishTime": 1510640418000,
+                        "shareCount": 18238,
+                        "sale": 1,
+                        "imgUrl": "https://www.baidu.com/img/bd_logo1.png",
+                        "price": 5,
+                        "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                        "origPrice": 5,
+                        "nickName": "用户1267",
+                        "isLike": false,
+                        "isFree": true,
+                        "photoId": "000032a252354360a6bb59d13e218f0e",
+                        "userId": "00004c879b3d4697add98d47cde5f1d0",
+                        "isFollowed": false
+                    }
+                ],
+                "shareCount": 18238,
+                "sale": 0.75,
+                "groupId": "000747d6363843308f1078007a7612c5",
+                "price": 22.01,
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "coins": 29.34,
+                "nickName": "用户1267",
+                "isLike": false,
+                "totalCount": 9,
+                "totalCoins": 15,
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "isFollowed": false,
+                "totalPage": 3
+            }
+        ],
+        "totalPage": 4
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片url</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>single.price</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>group.price</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>single.photoId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>single.origPrice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>group.origPrice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>group.groupId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的购买价格</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的定价（原价）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图的购买价格</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图的ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>套图的定价（原价）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>group.choice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>single.choice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买类型</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "single": {
+            "price": 5,
+            "photoId": "00001b536889420f9daea97f7e23981e",
+            "choice": 0
+        },
+        "group": {
+            "groupId": "00074503148b464385adbb1de8115b89",
+            "price": 21.33,
+            "choice": 1,
+            "origPrice": 27.34
+        }
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买方式 0：购买单张图片 1：购买套图</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>coins</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户所拥有的金币数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "coins": 12043
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>当type类型为非默认的时候，需要此参数海外标签</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickName</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>headImg</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签名</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -3778,7 +3895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4046,6 +4163,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4058,26 +4208,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4197,48 +4386,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="8" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4954,10 +5101,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
@@ -5004,7 +5151,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5012,12 +5159,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="62" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>13</v>
@@ -5025,18 +5172,18 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="62" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="62" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5044,7 +5191,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,7 +5199,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5067,6 +5214,793 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="97"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="97"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="97"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="97"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="1:9" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="106"/>
+      <c r="C7" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="103"/>
+    </row>
+    <row r="8" spans="1:9" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="106"/>
+      <c r="C8" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="97"/>
+      <c r="B9" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="97"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="97"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="97"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="97"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="97"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="97"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="97"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="97"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="97"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="97"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="97"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="97"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="97"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="97"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="97"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="97"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="97"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="97"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="97"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="97"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="97"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="97"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="97"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H20"/>
+    <mergeCell ref="D21:H21"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H11" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="A1" location="接口清单!B7" display="返回清单"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="9" max="9" width="60.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="106"/>
+      <c r="C4" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="106"/>
+      <c r="C5" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="106"/>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="135"/>
+      <c r="C8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="135"/>
+      <c r="C9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="135"/>
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="135"/>
+      <c r="C11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="135"/>
+      <c r="C12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="135"/>
+      <c r="C13" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="135"/>
+      <c r="C14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="135"/>
+      <c r="C15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="135"/>
+      <c r="C16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="135"/>
+      <c r="C17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="135"/>
+      <c r="C18" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="69"/>
+    </row>
+    <row r="19" spans="2:9" s="67" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B19" s="135"/>
+      <c r="C19" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="135"/>
+      <c r="C20" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" spans="2:9" ht="255" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="135"/>
+      <c r="C21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="136"/>
+      <c r="C22" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12 F14:F20">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="A1" location="接口清单!A14" display="返回清单"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -5088,24 +6022,24 @@
     <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="94"/>
-      <c r="C4" s="119"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
@@ -5126,8 +6060,8 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="94"/>
-      <c r="C5" s="120" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="144" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -5146,8 +6080,8 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="94"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="4" t="s">
         <v>97</v>
       </c>
@@ -5169,8 +6103,8 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="4" t="s">
         <v>99</v>
       </c>
@@ -5190,8 +6124,8 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="94"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="9" t="s">
         <v>101</v>
       </c>
@@ -5211,8 +6145,8 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="94"/>
-      <c r="C9" s="122"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="12" t="s">
         <v>102</v>
       </c>
@@ -5234,8 +6168,8 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="94"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="146"/>
       <c r="D10" s="12" t="s">
         <v>104</v>
       </c>
@@ -5257,8 +6191,8 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="94"/>
-      <c r="C11" s="122"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="12" t="s">
         <v>106</v>
       </c>
@@ -5280,7 +6214,7 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="94"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="11" t="s">
         <v>108</v>
       </c>
@@ -5305,77 +6239,77 @@
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="94"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="135"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
       <c r="K13" s="35"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="94"/>
-      <c r="C14" s="123" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="147" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="137"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="161"/>
       <c r="K14" s="35"/>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="94"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="E15" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="164"/>
       <c r="K15" s="35"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="17" t="s">
         <v>52</v>
       </c>
@@ -5391,16 +6325,16 @@
       <c r="G17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="153"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="19" t="s">
         <v>117</v>
       </c>
@@ -5414,11 +6348,11 @@
       <c r="G18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="19" t="s">
         <v>118</v>
       </c>
@@ -5432,13 +6366,13 @@
       <c r="G19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="100" t="s">
+      <c r="H19" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="100"/>
+      <c r="I19" s="113"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="19" t="s">
         <v>119</v>
       </c>
@@ -5452,11 +6386,11 @@
       <c r="G20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="99"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="19" t="s">
         <v>95</v>
       </c>
@@ -5470,11 +6404,11 @@
       <c r="G21" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="99"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="19" t="s">
         <v>74</v>
       </c>
@@ -5488,13 +6422,13 @@
       <c r="G22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="100"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="99"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="19" t="s">
         <v>122</v>
       </c>
@@ -5508,13 +6442,13 @@
       <c r="G23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="100" t="s">
+      <c r="H23" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="100"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="99"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="30" t="s">
         <v>125</v>
       </c>
@@ -5526,13 +6460,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="31"/>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="99"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="19" t="s">
         <v>127</v>
       </c>
@@ -5546,11 +6480,11 @@
       <c r="G25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="99"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="19" t="s">
         <v>129</v>
       </c>
@@ -5564,11 +6498,11 @@
       <c r="G26" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="99"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="19" t="s">
         <v>122</v>
       </c>
@@ -5582,76 +6516,76 @@
       <c r="G27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
     </row>
     <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
-      <c r="B28" s="99"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="109"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
     </row>
     <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
-      <c r="B29" s="99"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
     </row>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -5716,11 +6650,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
@@ -8526,8 +9460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" activeCellId="1" sqref="B14 B25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8543,37 +9477,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="A1" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F2" s="76" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -8581,13 +9515,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="79" t="s">
@@ -8602,13 +9536,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E4" s="75"/>
       <c r="F4" s="79" t="s">
@@ -8623,17 +9557,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E5" s="75"/>
       <c r="F5" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>44</v>
@@ -8644,17 +9578,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E6" s="75"/>
       <c r="F6" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G6" s="80" t="s">
         <v>44</v>
@@ -8664,18 +9598,18 @@
       <c r="A7" s="78">
         <v>5</v>
       </c>
-      <c r="B7" s="151" t="s">
-        <v>176</v>
+      <c r="B7" s="99" t="s">
+        <v>168</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E7" s="75"/>
       <c r="F7" s="79" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G7" s="80" t="s">
         <v>44</v>
@@ -8686,13 +9620,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E8" s="75"/>
       <c r="F8" s="79" t="s">
@@ -8706,14 +9640,14 @@
       <c r="A9" s="78">
         <v>7</v>
       </c>
-      <c r="B9" s="151" t="s">
-        <v>178</v>
+      <c r="B9" s="99" t="s">
+        <v>170</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E9" s="75"/>
       <c r="F9" s="79" t="s">
@@ -8728,17 +9662,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="84" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G10" s="87" t="s">
         <v>44</v>
@@ -8749,13 +9683,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="84" t="s">
@@ -8769,18 +9703,18 @@
       <c r="A12" s="78">
         <v>10</v>
       </c>
-      <c r="B12" s="151" t="s">
-        <v>180</v>
+      <c r="B12" s="99" t="s">
+        <v>172</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E12" s="75"/>
       <c r="F12" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G12" s="80" t="s">
         <v>44</v>
@@ -8790,18 +9724,18 @@
       <c r="A13" s="78">
         <v>11</v>
       </c>
-      <c r="B13" s="151" t="s">
-        <v>179</v>
+      <c r="B13" s="99" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E13" s="75"/>
       <c r="F13" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G13" s="80" t="s">
         <v>44</v>
@@ -8811,14 +9745,14 @@
       <c r="A14" s="78">
         <v>12</v>
       </c>
-      <c r="B14" s="81" t="s">
-        <v>181</v>
+      <c r="B14" s="99" t="s">
+        <v>173</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E14" s="75"/>
       <c r="F14" s="79" t="s">
@@ -8833,13 +9767,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="79" t="s">
@@ -8854,17 +9788,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E16" s="75"/>
       <c r="F16" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>44</v>
@@ -8875,17 +9809,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>44</v>
@@ -8896,17 +9830,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E18" s="75"/>
       <c r="F18" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>44</v>
@@ -8917,17 +9851,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>44</v>
@@ -8938,13 +9872,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="79" t="s">
@@ -8959,17 +9893,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>44</v>
@@ -8980,17 +9914,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G22" s="80" t="s">
         <v>44</v>
@@ -9001,13 +9935,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E23" s="75"/>
       <c r="F23" s="79" t="s">
@@ -9022,17 +9956,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>44</v>
@@ -9048,6 +9982,7 @@
     <hyperlink ref="B9" location="图片列表!A1" display="图片列表"/>
     <hyperlink ref="B12" location="关注!A1" display="关注"/>
     <hyperlink ref="B13" location="点赞!A1" display="点赞"/>
+    <hyperlink ref="B14" location="图片购买信息选择!A1" display="图片购买信息选择"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -9057,7 +9992,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9077,46 +10012,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="147" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -9139,24 +10074,24 @@
     <row r="6" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90"/>
       <c r="C6" s="71" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>72</v>
@@ -9166,124 +10101,122 @@
         <v>63</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="90"/>
       <c r="C8" s="71" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
-      <c r="C9" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="71"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="93"/>
+      <c r="C9" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="102"/>
       <c r="F9" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="102"/>
+    </row>
+    <row r="10" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="90"/>
+      <c r="C10" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C11" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="99"/>
-      <c r="C11" s="71" t="s">
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="112"/>
+      <c r="C12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D12" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E12" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F12" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H12" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="99"/>
-      <c r="C12" s="72" t="s">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="112"/>
+      <c r="C13" s="72" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="99"/>
-      <c r="C13" s="72" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G13" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>281</v>
+        <v>61</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="99"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="72" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>59</v>
@@ -9293,625 +10226,644 @@
         <v>63</v>
       </c>
       <c r="G14" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="112"/>
+      <c r="C15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101" t="s">
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="112"/>
+      <c r="C16" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-    </row>
-    <row r="16" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
-      <c r="C16" s="150" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="89" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="89"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
     </row>
     <row r="17" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
-      <c r="C17" s="150" t="s">
-        <v>234</v>
+      <c r="B17" s="112"/>
+      <c r="C17" s="98" t="s">
+        <v>287</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="H17" s="89"/>
     </row>
     <row r="18" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
-      <c r="C18" s="150" t="s">
-        <v>235</v>
+      <c r="B18" s="112"/>
+      <c r="C18" s="98" t="s">
+        <v>226</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="112"/>
+      <c r="C19" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="89"/>
-    </row>
-    <row r="19" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
-      <c r="C19" s="150" t="s">
-        <v>238</v>
-      </c>
       <c r="D19" s="89" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G19" s="89" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H19" s="89"/>
     </row>
     <row r="20" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
-      <c r="C20" s="150" t="s">
-        <v>240</v>
+      <c r="B20" s="112"/>
+      <c r="C20" s="98" t="s">
+        <v>230</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G20" s="89" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="99"/>
-      <c r="C21" s="150" t="s">
-        <v>242</v>
+      <c r="B21" s="112"/>
+      <c r="C21" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E21" s="89"/>
       <c r="F21" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="H21" s="89"/>
     </row>
     <row r="22" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="99"/>
-      <c r="C22" s="150" t="s">
-        <v>244</v>
+      <c r="B22" s="112"/>
+      <c r="C22" s="98" t="s">
+        <v>234</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="89" t="s">
-        <v>246</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H22" s="89"/>
     </row>
     <row r="23" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="99"/>
-      <c r="C23" s="150" t="s">
-        <v>247</v>
+      <c r="B23" s="112"/>
+      <c r="C23" s="98" t="s">
+        <v>236</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G23" s="89" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="99"/>
-      <c r="C24" s="150" t="s">
-        <v>250</v>
+      <c r="B24" s="112"/>
+      <c r="C24" s="98" t="s">
+        <v>300</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="H24" s="89"/>
+        <v>301</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="25" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="99"/>
-      <c r="C25" s="150" t="s">
-        <v>252</v>
+      <c r="B25" s="112"/>
+      <c r="C25" s="98" t="s">
+        <v>240</v>
       </c>
       <c r="D25" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G25" s="89" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="H25" s="89"/>
     </row>
     <row r="26" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="99"/>
-      <c r="C26" s="150" t="s">
-        <v>253</v>
+      <c r="B26" s="112"/>
+      <c r="C26" s="98" t="s">
+        <v>242</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H26" s="89"/>
     </row>
     <row r="27" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="99"/>
-      <c r="C27" s="150" t="s">
-        <v>254</v>
+      <c r="B27" s="112"/>
+      <c r="C27" s="98" t="s">
+        <v>243</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H27" s="89"/>
     </row>
     <row r="28" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="99"/>
-      <c r="C28" s="150" t="s">
-        <v>255</v>
+      <c r="B28" s="112"/>
+      <c r="C28" s="98" t="s">
+        <v>244</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>264</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="99"/>
-      <c r="C29" s="150" t="s">
-        <v>256</v>
+      <c r="B29" s="112"/>
+      <c r="C29" s="98" t="s">
+        <v>245</v>
       </c>
       <c r="D29" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E29" s="89"/>
       <c r="F29" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="99"/>
-      <c r="C30" s="150" t="s">
-        <v>301</v>
+      <c r="B30" s="112"/>
+      <c r="C30" s="98" t="s">
+        <v>246</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E30" s="89"/>
       <c r="F30" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>302</v>
-      </c>
-      <c r="H30" s="89"/>
+        <v>250</v>
+      </c>
+      <c r="H30" s="89" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="31" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="99"/>
-      <c r="C31" s="150" t="s">
-        <v>258</v>
+      <c r="B31" s="112"/>
+      <c r="C31" s="98" t="s">
+        <v>289</v>
       </c>
       <c r="D31" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E31" s="89"/>
       <c r="F31" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G31" s="89" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="H31" s="89"/>
     </row>
     <row r="32" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="99"/>
-      <c r="C32" s="150" t="s">
-        <v>265</v>
+      <c r="B32" s="112"/>
+      <c r="C32" s="98" t="s">
+        <v>248</v>
       </c>
       <c r="D32" s="89" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>266</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
-      <c r="C33" s="150" t="s">
-        <v>267</v>
+      <c r="B33" s="112"/>
+      <c r="C33" s="98" t="s">
+        <v>255</v>
       </c>
       <c r="D33" s="89" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E33" s="89"/>
       <c r="F33" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H33" s="89" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="99"/>
-      <c r="C34" s="150" t="s">
-        <v>268</v>
+      <c r="B34" s="112"/>
+      <c r="C34" s="98" t="s">
+        <v>257</v>
       </c>
       <c r="D34" s="89" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E34" s="89"/>
       <c r="F34" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G34" s="89" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" s="89"/>
+        <v>269</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="35" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="99"/>
-      <c r="C35" s="150" t="s">
-        <v>269</v>
+      <c r="B35" s="112"/>
+      <c r="C35" s="98" t="s">
+        <v>258</v>
       </c>
       <c r="D35" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" s="89"/>
       <c r="F35" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H35" s="89"/>
     </row>
     <row r="36" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="99"/>
-      <c r="C36" s="150" t="s">
-        <v>270</v>
+      <c r="B36" s="112"/>
+      <c r="C36" s="98" t="s">
+        <v>259</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H36" s="89"/>
     </row>
     <row r="37" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="99"/>
-      <c r="C37" s="150" t="s">
-        <v>271</v>
+      <c r="B37" s="112"/>
+      <c r="C37" s="98" t="s">
+        <v>260</v>
       </c>
       <c r="D37" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E37" s="89"/>
       <c r="F37" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G37" s="89" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H37" s="89"/>
     </row>
     <row r="38" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="99"/>
-      <c r="C38" s="150" t="s">
-        <v>272</v>
+      <c r="B38" s="112"/>
+      <c r="C38" s="98" t="s">
+        <v>261</v>
       </c>
       <c r="D38" s="89" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E38" s="89"/>
       <c r="F38" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H38" s="89"/>
     </row>
     <row r="39" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="99"/>
-      <c r="C39" s="150" t="s">
-        <v>273</v>
+      <c r="B39" s="112"/>
+      <c r="C39" s="98" t="s">
+        <v>302</v>
       </c>
       <c r="D39" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E39" s="89"/>
       <c r="F39" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G39" s="89" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="H39" s="89"/>
     </row>
     <row r="40" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="99"/>
-      <c r="C40" s="150" t="s">
-        <v>274</v>
+      <c r="B40" s="112"/>
+      <c r="C40" s="98" t="s">
+        <v>262</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E40" s="89"/>
       <c r="F40" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G40" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="89"/>
+    </row>
+    <row r="41" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="112"/>
+      <c r="C41" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="H40" s="89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="99"/>
-      <c r="C41" s="150" t="s">
-        <v>275</v>
-      </c>
       <c r="D41" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H41" s="89" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="99"/>
-      <c r="C42" s="150" t="s">
-        <v>276</v>
+      <c r="B42" s="112"/>
+      <c r="C42" s="98" t="s">
+        <v>264</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E42" s="89"/>
       <c r="F42" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G42" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="H42" s="89"/>
+        <v>278</v>
+      </c>
+      <c r="H42" s="89" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="43" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="99"/>
-      <c r="C43" s="150" t="s">
-        <v>277</v>
+      <c r="B43" s="112"/>
+      <c r="C43" s="98" t="s">
+        <v>265</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E43" s="89"/>
       <c r="F43" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H43" s="89"/>
     </row>
     <row r="44" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="99"/>
-      <c r="C44" s="150" t="s">
-        <v>278</v>
+      <c r="B44" s="112"/>
+      <c r="C44" s="98" t="s">
+        <v>266</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E44" s="89"/>
       <c r="F44" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="H44" s="89" t="s">
-        <v>262</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H44" s="89"/>
     </row>
     <row r="45" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="99"/>
-      <c r="C45" s="150" t="s">
-        <v>279</v>
+      <c r="B45" s="112"/>
+      <c r="C45" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E45" s="89"/>
       <c r="F45" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G45" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="89"/>
-    </row>
-    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="99"/>
-      <c r="C46" s="102" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
+        <v>250</v>
+      </c>
+      <c r="H45" s="89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="112"/>
+      <c r="C46" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="89"/>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="99"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="99"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="99"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="99"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
     </row>
     <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="99"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="99"/>
-      <c r="C52" s="70" t="s">
+      <c r="B52" s="112"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+    </row>
+    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="112"/>
+      <c r="C53" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="103" t="s">
+      <c r="D53" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:B52"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C46:H51"/>
-    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="B11:B53"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C47:H52"/>
+    <mergeCell ref="D53:H53"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -9921,12 +10873,12 @@
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H12" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="H13" location="错误码!A1" display="错误码"/>
     <hyperlink ref="A1" location="接口清单!B7" display="返回清单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9938,7 +10890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9954,46 +10908,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="147" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -10016,24 +10970,24 @@
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90"/>
       <c r="C6" s="71" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>72</v>
@@ -10043,42 +10997,42 @@
         <v>63</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="90"/>
       <c r="C8" s="71" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="99"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="71" t="s">
         <v>52</v>
       </c>
@@ -10099,7 +11053,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="99"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="88" t="s">
         <v>58</v>
       </c>
@@ -10118,7 +11072,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="99"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="88" t="s">
         <v>62</v>
       </c>
@@ -10133,11 +11087,11 @@
         <v>64</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="99"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="88" t="s">
         <v>66</v>
       </c>
@@ -10154,366 +11108,366 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101" t="s">
+      <c r="B14" s="112"/>
+      <c r="C14" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
     </row>
     <row r="15" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
-      <c r="C15" s="150" t="s">
-        <v>299</v>
+      <c r="B15" s="112"/>
+      <c r="C15" s="98" t="s">
+        <v>287</v>
       </c>
       <c r="D15" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H15" s="89"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
-      <c r="C16" s="150" t="s">
-        <v>234</v>
+      <c r="B16" s="112"/>
+      <c r="C16" s="98" t="s">
+        <v>226</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H16" s="89"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
-      <c r="C17" s="150" t="s">
-        <v>294</v>
+      <c r="B17" s="112"/>
+      <c r="C17" s="98" t="s">
+        <v>282</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="112"/>
+      <c r="C18" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
-      <c r="C18" s="150" t="s">
-        <v>235</v>
-      </c>
       <c r="D18" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G18" s="89" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H18" s="89" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
-      <c r="C19" s="150" t="s">
-        <v>240</v>
+      <c r="B19" s="112"/>
+      <c r="C19" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G19" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="89"/>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="112"/>
+      <c r="C20" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
-      <c r="C20" s="150" t="s">
-        <v>295</v>
-      </c>
       <c r="D20" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G20" s="89" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="99"/>
-      <c r="C21" s="150" t="s">
-        <v>244</v>
+      <c r="B21" s="112"/>
+      <c r="C21" s="98" t="s">
+        <v>236</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E21" s="89"/>
       <c r="F21" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H21" s="89"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="99"/>
-      <c r="C22" s="150" t="s">
-        <v>253</v>
+      <c r="B22" s="112"/>
+      <c r="C22" s="98" t="s">
+        <v>243</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H22" s="89"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="99"/>
-      <c r="C23" s="150" t="s">
-        <v>247</v>
+      <c r="B23" s="112"/>
+      <c r="C23" s="98" t="s">
+        <v>300</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G23" s="89" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="H23" s="89"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="99"/>
-      <c r="C24" s="150" t="s">
-        <v>254</v>
+      <c r="B24" s="112"/>
+      <c r="C24" s="98" t="s">
+        <v>244</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H24" s="89"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="99"/>
-      <c r="C25" s="150" t="s">
-        <v>255</v>
+      <c r="B25" s="112"/>
+      <c r="C25" s="98" t="s">
+        <v>245</v>
       </c>
       <c r="D25" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G25" s="89" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H25" s="89" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="99"/>
-      <c r="C26" s="150" t="s">
-        <v>296</v>
+      <c r="B26" s="112"/>
+      <c r="C26" s="98" t="s">
+        <v>284</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H26" s="89" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="99"/>
-      <c r="C27" s="150" t="s">
-        <v>297</v>
+      <c r="B27" s="112"/>
+      <c r="C27" s="98" t="s">
+        <v>285</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H27" s="89"/>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="99"/>
-      <c r="C28" s="150" t="s">
-        <v>252</v>
+      <c r="B28" s="112"/>
+      <c r="C28" s="98" t="s">
+        <v>242</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H28" s="89"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="99"/>
-      <c r="C29" s="150" t="s">
-        <v>256</v>
+      <c r="B29" s="112"/>
+      <c r="C29" s="98" t="s">
+        <v>246</v>
       </c>
       <c r="D29" s="89" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E29" s="89"/>
       <c r="F29" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="99"/>
-      <c r="C30" s="150" t="s">
-        <v>238</v>
+      <c r="B30" s="112"/>
+      <c r="C30" s="98" t="s">
+        <v>230</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E30" s="89"/>
       <c r="F30" s="89" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H30" s="89"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="99"/>
-      <c r="C31" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="99"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="99"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="99"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="99"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="99"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10522,12 +11476,12 @@
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C31:H36"/>
     <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -10563,46 +11517,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="152" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
-      <c r="C4" s="155" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -10623,9 +11577,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="95"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="91" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D6" s="91" t="s">
         <v>137</v>
@@ -10635,16 +11589,16 @@
         <v>138</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="91" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>137</v>
@@ -10654,25 +11608,25 @@
         <v>138</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="99"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -10693,7 +11647,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="99"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="88" t="s">
         <v>58</v>
       </c>
@@ -10712,7 +11666,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="99"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="88" t="s">
         <v>62</v>
       </c>
@@ -10731,7 +11685,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="99"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="88" t="s">
         <v>66</v>
       </c>
@@ -10748,84 +11702,84 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10860,7 +11814,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I21" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10882,49 +11836,49 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="92"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="152" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="92"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="92"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="155" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="92"/>
-      <c r="B5" s="95"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -10946,9 +11900,9 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="92"/>
-      <c r="B6" s="95"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="91" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D6" s="91" t="s">
         <v>137</v>
@@ -10958,17 +11912,17 @@
         <v>138</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="92"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="91" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>137</v>
@@ -10978,27 +11932,27 @@
         <v>138</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="92"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92"/>
-      <c r="B9" s="99"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -11020,7 +11974,7 @@
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92"/>
-      <c r="B10" s="99"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="88" t="s">
         <v>58</v>
       </c>
@@ -11040,7 +11994,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="92"/>
-      <c r="B11" s="99"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="88" t="s">
         <v>62</v>
       </c>
@@ -11060,7 +12014,7 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="92"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="88" t="s">
         <v>66</v>
       </c>
@@ -11078,91 +12032,91 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="92"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="92"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="102" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="92"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="92"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="92"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="92"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="92"/>
-      <c r="B20" s="99"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11194,10 +12148,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11209,7 +12163,7 @@
     <col min="5" max="5" width="23.75" style="74" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="74" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="74" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="74" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="74" customWidth="1"/>
     <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
@@ -11218,47 +12172,47 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="94" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
-      <c r="C4" s="98" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="106"/>
+      <c r="C3" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="106"/>
+      <c r="C4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="106"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -11278,10 +12232,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="95"/>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="106"/>
       <c r="C6" s="73" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D6" s="73" t="s">
         <v>137</v>
@@ -11291,84 +12245,86 @@
         <v>138</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="95"/>
-      <c r="C7" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="99" t="s">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C7" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="99"/>
-      <c r="C9" s="71" t="s">
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="112"/>
+      <c r="C8" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E8" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G8" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H8" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="99"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="112"/>
+      <c r="C9" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="112"/>
       <c r="C10" s="72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="99"/>
+        <v>149</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="112"/>
       <c r="C11" s="72" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>59</v>
@@ -11378,117 +12334,238 @@
         <v>63</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="99"/>
-      <c r="C12" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="127"/>
+      <c r="C12" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+    </row>
+    <row r="13" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="127"/>
+      <c r="C13" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="101"/>
+    </row>
+    <row r="14" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="127"/>
+      <c r="C14" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="127"/>
+      <c r="C15" s="100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="101"/>
+    </row>
+    <row r="16" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="127"/>
+      <c r="C16" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="100"/>
+      <c r="F16" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
-      <c r="C20" s="70" t="s">
+      <c r="G16" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="101"/>
+    </row>
+    <row r="17" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="127"/>
+      <c r="C17" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="101"/>
+    </row>
+    <row r="18" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="127"/>
+      <c r="C18" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="100"/>
+      <c r="F18" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="101" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="127"/>
+      <c r="C19" s="100" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" s="101"/>
+    </row>
+    <row r="20" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="127"/>
+      <c r="C20" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="101"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="112"/>
+      <c r="C21" s="115" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="112"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="112"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="112"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="112"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="112"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+    </row>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="112"/>
+      <c r="C27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D27" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
@@ -11497,12 +12574,12 @@
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F20 F9:F11">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="H9" location="错误码!A1" display="错误码"/>
     <hyperlink ref="A1" location="接口清单!B9" display="返回清单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11512,405 +12589,346 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="40.875" customWidth="1"/>
-    <col min="9" max="9" width="60.375" customWidth="1"/>
+    <col min="2" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="94" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C2" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
-      <c r="C4" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
-      <c r="C5" s="113" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="97"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="97"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="97"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="95"/>
-      <c r="C6" s="2" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D5" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="110" t="s">
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="97"/>
+      <c r="B6" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="111"/>
-      <c r="C8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
+      <c r="C6" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="97"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="97"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="111"/>
-      <c r="C9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="111"/>
-      <c r="C10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="G8" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="97"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="97"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="97"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="97"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="97"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="97"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="97"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="97"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="100" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="111"/>
-      <c r="C11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="111"/>
-      <c r="C12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="111"/>
-      <c r="C13" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="111"/>
-      <c r="C14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="111"/>
-      <c r="C15" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="111"/>
-      <c r="C16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="111"/>
-      <c r="C17" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="111"/>
-      <c r="C18" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="19" spans="2:9" s="67" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B19" s="111"/>
-      <c r="C19" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="111"/>
-      <c r="C20" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="2:9" ht="255" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="111"/>
-      <c r="C21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
-      <c r="C22" s="39" t="s">
+      <c r="G12" s="100" t="s">
+        <v>326</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="97"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="97"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="97"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="97"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="97"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="97"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="97"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="97"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="97"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="97"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="97"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="97"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="47"/>
+      <c r="D19" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="97"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B22"/>
+  <mergeCells count="11">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H18"/>
+    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12 F14:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12 F8:F10">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
-    <hyperlink ref="A1" location="接口清单!A14" display="返回清单"/>
+    <hyperlink ref="H8" location="错误码!A1" display="错误码"/>
+    <hyperlink ref="A1" location="接口清单!B9" display="返回清单"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/接口文档/图片-接口文档.xlsx
+++ b/documents/接口文档/图片-接口文档.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="8175" tabRatio="759" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" tabRatio="759" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口描述" sheetId="1" r:id="rId1"/>
@@ -17,16 +22,17 @@
     <sheet name="图片购买信息选择" sheetId="129" r:id="rId8"/>
     <sheet name="余额" sheetId="132" r:id="rId9"/>
     <sheet name="个人信息修改" sheetId="133" r:id="rId10"/>
-    <sheet name="版本更新检测" sheetId="117" r:id="rId11"/>
-    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId12"/>
+    <sheet name="购买记录" sheetId="134" r:id="rId11"/>
+    <sheet name="购买图片" sheetId="135" r:id="rId12"/>
+    <sheet name="版本更新检测" sheetId="117" r:id="rId13"/>
+    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:J19"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="359">
   <si>
     <t>接口描述</t>
   </si>
@@ -1008,10 +1014,6 @@
   </si>
   <si>
     <t>购买记录</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/records.action</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
@@ -1977,6 +1979,183 @@
   </si>
   <si>
     <t>用户签名</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/records.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/buy.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/buy.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买类型</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买的id</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买方式 0：购买图片(默认) 1：购买套图</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>当choice等于0：图片的ID 1：套图的ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": ""
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.choice</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.buyDay</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总数量</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>被购买的图片所属用户 的头像</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>被购买的图片所属用户 的ID</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>被购买的图片所属用户 的昵称</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买的时间</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>总页数</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+        "totalPage": 4,
+        "totalCount": 32,
+        "list": [
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            },
+            {
+                "headImg": "http://p.3761.com/pic/25681432169575.jpg",
+                "choice": 1,
+                "nickName": "用户1267",
+                "userId": "00004c879b3d4697add98d47cde5f1d0",
+                "buyDay": "8天前"
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买图片</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买图片</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -3895,7 +4074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4184,6 +4363,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="8" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4387,6 +4578,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="324">
@@ -5101,10 +5295,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
@@ -5151,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,52 +5436,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="97"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="97"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="97"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -5310,75 +5504,75 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="97"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D6" s="94" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="94"/>
       <c r="F6" s="94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="94"/>
       <c r="I6" s="97"/>
     </row>
     <row r="7" spans="1:9" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="106"/>
-      <c r="C7" s="103" t="s">
-        <v>332</v>
+      <c r="B7" s="110"/>
+      <c r="C7" s="107" t="s">
+        <v>331</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" s="103"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:9" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="106"/>
-      <c r="C8" s="103" t="s">
-        <v>333</v>
+      <c r="B8" s="110"/>
+      <c r="C8" s="107" t="s">
+        <v>332</v>
       </c>
       <c r="D8" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="103"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="97"/>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="97"/>
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="71" t="s">
         <v>52</v>
       </c>
@@ -5401,7 +5595,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="97"/>
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="95" t="s">
         <v>58</v>
       </c>
@@ -5422,7 +5616,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="97"/>
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="95" t="s">
         <v>62</v>
       </c>
@@ -5443,7 +5637,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="97"/>
-      <c r="B13" s="112"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
@@ -5462,98 +5656,98 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="97"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="114" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
       <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="97"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="115" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="97"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="97"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="97"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="97"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
       <c r="I18" s="97"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="97"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
       <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="97"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
       <c r="I20" s="97"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="97"/>
-      <c r="B21" s="112"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="97"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -5597,6 +5791,875 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="103"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="103"/>
+      <c r="B8" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="103"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="103"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="103"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="103"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="103"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="103"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="103"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="103"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="103"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="103"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="103"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="103"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="103"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="103"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="103"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="103"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="103"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="103"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="103"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="103"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="103"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="103"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="103"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="103"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="103"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="103"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="103"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="103"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="103"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="103"/>
+      <c r="B8" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="103"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="103"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="103"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="103"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="103"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="103"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="103"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="103"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="103"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="103"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="103"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="103"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="103"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="103"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5619,51 +6682,51 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="106"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="106"/>
-      <c r="C5" s="137" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="139"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -5685,7 +6748,7 @@
       <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="138" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -5699,7 +6762,7 @@
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="135"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="40" t="s">
         <v>78</v>
       </c>
@@ -5719,7 +6782,7 @@
       <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="135"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="17" t="s">
         <v>52</v>
       </c>
@@ -5741,7 +6804,7 @@
       <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="135"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="19" t="s">
         <v>58</v>
       </c>
@@ -5761,7 +6824,7 @@
       <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="135"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
@@ -5781,7 +6844,7 @@
       <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="135"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="19" t="s">
         <v>66</v>
       </c>
@@ -5799,19 +6862,19 @@
       <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="135"/>
-      <c r="C13" s="128" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="130"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="135"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="23" t="s">
         <v>81</v>
       </c>
@@ -5829,7 +6892,7 @@
       <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="135"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="23" t="s">
         <v>83</v>
       </c>
@@ -5847,7 +6910,7 @@
       <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="135"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="23" t="s">
         <v>85</v>
       </c>
@@ -5867,7 +6930,7 @@
       <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="135"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="28" t="s">
         <v>87</v>
       </c>
@@ -5887,7 +6950,7 @@
       <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="135"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="63" t="s">
         <v>145</v>
       </c>
@@ -5907,7 +6970,7 @@
       <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:9" s="67" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B19" s="135"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="65" t="s">
         <v>91</v>
       </c>
@@ -5927,7 +6990,7 @@
       <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="135"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5945,31 +7008,31 @@
       <c r="I20" s="69"/>
     </row>
     <row r="21" spans="2:9" ht="255" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="135"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="133"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="47"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="136"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
       <c r="I22" s="47"/>
     </row>
   </sheetData>
@@ -6000,7 +7063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -6022,24 +7085,24 @@
     <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="105"/>
-      <c r="C4" s="143"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
@@ -6060,8 +7123,8 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="105"/>
-      <c r="C5" s="144" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="148" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -6080,8 +7143,8 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="105"/>
-      <c r="C6" s="145"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="4" t="s">
         <v>97</v>
       </c>
@@ -6103,8 +7166,8 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="105"/>
-      <c r="C7" s="145"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="4" t="s">
         <v>99</v>
       </c>
@@ -6124,8 +7187,8 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="105"/>
-      <c r="C8" s="145"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="9" t="s">
         <v>101</v>
       </c>
@@ -6145,8 +7208,8 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="105"/>
-      <c r="C9" s="146"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="150"/>
       <c r="D9" s="12" t="s">
         <v>102</v>
       </c>
@@ -6168,8 +7231,8 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="105"/>
-      <c r="C10" s="146"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="12" t="s">
         <v>104</v>
       </c>
@@ -6191,8 +7254,8 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="105"/>
-      <c r="C11" s="146"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="12" t="s">
         <v>106</v>
       </c>
@@ -6214,7 +7277,7 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="105"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="11" t="s">
         <v>108</v>
       </c>
@@ -6239,77 +7302,77 @@
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="159"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
       <c r="K13" s="35"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="105"/>
-      <c r="C14" s="147" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="151" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="157" t="s">
+      <c r="E14" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="161"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="K14" s="35"/>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="105"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="162" t="s">
+      <c r="E15" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="164"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="168"/>
       <c r="K15" s="35"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="171"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="112"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="17" t="s">
         <v>52</v>
       </c>
@@ -6325,16 +7388,16 @@
       <c r="G17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="153"/>
+      <c r="I17" s="157"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="112"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="19" t="s">
         <v>117</v>
       </c>
@@ -6348,11 +7411,11 @@
       <c r="G18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="112"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="19" t="s">
         <v>118</v>
       </c>
@@ -6366,13 +7429,13 @@
       <c r="G19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H19" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="113"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="112"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="19" t="s">
         <v>119</v>
       </c>
@@ -6386,11 +7449,11 @@
       <c r="G20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="112"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="19" t="s">
         <v>95</v>
       </c>
@@ -6404,11 +7467,11 @@
       <c r="G21" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="19" t="s">
         <v>74</v>
       </c>
@@ -6422,13 +7485,13 @@
       <c r="G22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="113"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="112"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="19" t="s">
         <v>122</v>
       </c>
@@ -6442,13 +7505,13 @@
       <c r="G23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="113" t="s">
+      <c r="H23" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="113"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="30" t="s">
         <v>125</v>
       </c>
@@ -6460,13 +7523,13 @@
         <v>60</v>
       </c>
       <c r="G24" s="31"/>
-      <c r="H24" s="151" t="s">
+      <c r="H24" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="151"/>
+      <c r="I24" s="155"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="112"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="19" t="s">
         <v>127</v>
       </c>
@@ -6480,11 +7543,11 @@
       <c r="G25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="112"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="19" t="s">
         <v>129</v>
       </c>
@@ -6498,11 +7561,11 @@
       <c r="G26" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="112"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="19" t="s">
         <v>122</v>
       </c>
@@ -6516,76 +7579,76 @@
       <c r="G27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
     </row>
     <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
-      <c r="B28" s="112"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="131" t="s">
+      <c r="D28" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="137"/>
     </row>
     <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
-      <c r="B29" s="112"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
     </row>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6650,11 +7713,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
@@ -9458,10 +10521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9477,15 +10540,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76" t="s">
@@ -9602,10 +10665,10 @@
         <v>168</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E7" s="75"/>
       <c r="F7" s="79" t="s">
@@ -9619,20 +10682,20 @@
       <c r="A8" s="78">
         <v>6</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="79" t="s">
+      <c r="D8" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="87" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9647,7 +10710,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E9" s="75"/>
       <c r="F9" s="79" t="s">
@@ -9710,7 +10773,7 @@
         <v>184</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="75"/>
       <c r="F12" s="79" t="s">
@@ -9731,7 +10794,7 @@
         <v>183</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="75"/>
       <c r="F13" s="79" t="s">
@@ -9745,18 +10808,18 @@
       <c r="A14" s="78">
         <v>12</v>
       </c>
-      <c r="B14" s="99" t="s">
-        <v>173</v>
+      <c r="B14" s="172" t="s">
+        <v>357</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14" s="75"/>
       <c r="F14" s="79" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>44</v>
@@ -9766,14 +10829,14 @@
       <c r="A15" s="78">
         <v>13</v>
       </c>
-      <c r="B15" s="81" t="s">
-        <v>205</v>
+      <c r="B15" s="99" t="s">
+        <v>173</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E15" s="75"/>
       <c r="F15" s="79" t="s">
@@ -9787,18 +10850,18 @@
       <c r="A16" s="78">
         <v>14</v>
       </c>
-      <c r="B16" s="81" t="s">
-        <v>194</v>
+      <c r="B16" s="99" t="s">
+        <v>205</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E16" s="75"/>
       <c r="F16" s="79" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>44</v>
@@ -9809,10 +10872,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="81" t="s">
         <v>178</v>
@@ -9830,10 +10893,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D18" s="81" t="s">
         <v>178</v>
@@ -9850,14 +10913,14 @@
       <c r="A19" s="78">
         <v>17</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>204</v>
+      <c r="B19" s="99" t="s">
+        <v>336</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="79" t="s">
@@ -9872,17 +10935,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D20" s="81" t="s">
         <v>178</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="79" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G20" s="80" t="s">
         <v>44</v>
@@ -9893,17 +10956,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D21" s="81" t="s">
         <v>178</v>
       </c>
       <c r="E21" s="75"/>
       <c r="F21" s="79" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>44</v>
@@ -9914,10 +10977,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D22" s="81" t="s">
         <v>178</v>
@@ -9935,17 +10998,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>178</v>
       </c>
       <c r="E23" s="75"/>
       <c r="F23" s="79" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>44</v>
@@ -9956,19 +11019,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="78">
+        <v>23</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G25" s="80" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9982,7 +11066,10 @@
     <hyperlink ref="B9" location="图片列表!A1" display="图片列表"/>
     <hyperlink ref="B12" location="关注!A1" display="关注"/>
     <hyperlink ref="B13" location="点赞!A1" display="点赞"/>
-    <hyperlink ref="B14" location="图片购买信息选择!A1" display="图片购买信息选择"/>
+    <hyperlink ref="B15" location="图片购买信息选择!A1" display="图片购买信息选择"/>
+    <hyperlink ref="B19" location="购买记录!A1" display="购买记录"/>
+    <hyperlink ref="B16" location="余额!A1" display="余额"/>
+    <hyperlink ref="B14" location="购买图片!A1" display="购买图片"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -10012,46 +11099,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="106"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="106"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -10074,24 +11161,24 @@
     <row r="6" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90"/>
       <c r="C6" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="71" t="s">
         <v>215</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>72</v>
@@ -10101,80 +11188,80 @@
         <v>63</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="90"/>
       <c r="C8" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="71" t="s">
         <v>222</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="93"/>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="102"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="H9" s="102"/>
+      <c r="G9" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="90"/>
       <c r="C10" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="71" t="s">
         <v>52</v>
       </c>
@@ -10195,7 +11282,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="112"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="72" t="s">
         <v>58</v>
       </c>
@@ -10214,7 +11301,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="112"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="72" t="s">
         <v>62</v>
       </c>
@@ -10229,11 +11316,11 @@
         <v>64</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="112"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="72" t="s">
         <v>66</v>
       </c>
@@ -10250,612 +11337,612 @@
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="112"/>
-      <c r="C16" s="114" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="112"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="89"/>
     </row>
     <row r="18" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="112"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" s="89"/>
     </row>
     <row r="19" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="112"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="89" t="s">
         <v>227</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>228</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="89"/>
+    </row>
+    <row r="20" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="116"/>
+      <c r="C20" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="20" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="112"/>
-      <c r="C20" s="98" t="s">
-        <v>230</v>
-      </c>
       <c r="D20" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="89"/>
+    </row>
+    <row r="21" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="116"/>
+      <c r="C21" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="H20" s="89"/>
-    </row>
-    <row r="21" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="112"/>
-      <c r="C21" s="98" t="s">
+      <c r="D21" s="89" t="s">
         <v>232</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>233</v>
       </c>
       <c r="E21" s="89"/>
       <c r="F21" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H21" s="89"/>
     </row>
     <row r="22" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="116"/>
+      <c r="C23" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="112"/>
-      <c r="C23" s="98" t="s">
-        <v>236</v>
-      </c>
       <c r="D23" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="H23" s="89" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="24" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H24" s="89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="116"/>
+      <c r="C25" s="98" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="112"/>
-      <c r="C25" s="98" t="s">
-        <v>240</v>
-      </c>
       <c r="D25" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="116"/>
+      <c r="C26" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="112"/>
-      <c r="C26" s="98" t="s">
-        <v>242</v>
-      </c>
       <c r="D26" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H26" s="89"/>
     </row>
     <row r="27" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="112"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H27" s="89"/>
     </row>
     <row r="28" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="112"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H28" s="89"/>
     </row>
     <row r="29" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="112"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="89"/>
       <c r="F29" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G29" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="H29" s="89" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="30" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="112"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="89"/>
       <c r="F30" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="112"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="89"/>
       <c r="F31" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H31" s="89"/>
     </row>
     <row r="32" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="112"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H32" s="89"/>
     </row>
     <row r="33" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="112"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E33" s="89"/>
       <c r="F33" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H33" s="89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="116"/>
+      <c r="C34" s="98" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="112"/>
-      <c r="C34" s="98" t="s">
-        <v>257</v>
-      </c>
       <c r="D34" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E34" s="89"/>
       <c r="F34" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G34" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="H34" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="89" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="35" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="112"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="89"/>
       <c r="F35" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H35" s="89"/>
     </row>
     <row r="36" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="112"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H36" s="89"/>
     </row>
     <row r="37" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="112"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D37" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" s="89"/>
       <c r="F37" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H37" s="89"/>
     </row>
     <row r="38" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="112"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="89"/>
       <c r="F38" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H38" s="89"/>
     </row>
     <row r="39" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="112"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D39" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="89"/>
       <c r="F39" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H39" s="89"/>
     </row>
     <row r="40" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="112"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="89"/>
       <c r="F40" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H40" s="89"/>
     </row>
     <row r="41" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="112"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D41" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="89"/>
       <c r="F41" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="H41" s="89" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="42" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="112"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" s="89"/>
       <c r="F42" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="H42" s="89" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="43" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="112"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="89"/>
       <c r="F43" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" s="89"/>
     </row>
     <row r="44" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="112"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="89"/>
       <c r="F44" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H44" s="89"/>
     </row>
     <row r="45" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="112"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" s="89"/>
       <c r="F45" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G45" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H45" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="112"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E46" s="89"/>
       <c r="F46" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="112"/>
-      <c r="C47" s="115" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="119" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="112"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="112"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="112"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
     </row>
     <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="112"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="112"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
     </row>
     <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="112"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="116" t="s">
+      <c r="D53" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10890,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10908,46 +11995,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="106"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="108" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="106"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -10970,24 +12057,24 @@
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90"/>
       <c r="C6" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="71" t="s">
         <v>215</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>72</v>
@@ -10997,42 +12084,42 @@
         <v>63</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="90"/>
       <c r="C8" s="71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="71" t="s">
         <v>52</v>
       </c>
@@ -11053,7 +12140,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="88" t="s">
         <v>58</v>
       </c>
@@ -11072,7 +12159,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="88" t="s">
         <v>62</v>
       </c>
@@ -11087,11 +12174,11 @@
         <v>64</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="112"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="88" t="s">
         <v>66</v>
       </c>
@@ -11108,366 +12195,366 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="112"/>
-      <c r="C14" s="114" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
     </row>
     <row r="15" spans="1:8" s="92" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="112"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H15" s="89"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="112"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H16" s="89"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="112"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="112"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="89" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="112"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="89" t="s">
         <v>232</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>233</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H19" s="89"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="112"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="112"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="89"/>
       <c r="F21" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H21" s="89"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" s="89"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="112"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H23" s="89"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H24" s="89"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="112"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="H25" s="89" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="112"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="89" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="112"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="89"/>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="112"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D28" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H28" s="89"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="112"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="89"/>
       <c r="F29" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="112"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="89"/>
       <c r="F30" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H30" s="89"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="112"/>
-      <c r="C31" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="112"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="112"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="112"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="112"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="112"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="112"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11517,46 +12604,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="106"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="106"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -11577,9 +12664,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="91" t="s">
         <v>137</v>
@@ -11589,16 +12676,16 @@
         <v>138</v>
       </c>
       <c r="G6" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="91" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>137</v>
@@ -11608,25 +12695,25 @@
         <v>138</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="112"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -11647,7 +12734,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="88" t="s">
         <v>58</v>
       </c>
@@ -11666,7 +12753,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="88" t="s">
         <v>62</v>
       </c>
@@ -11685,7 +12772,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="88" t="s">
         <v>66</v>
       </c>
@@ -11702,84 +12789,84 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="112"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="112"/>
-      <c r="C14" s="115" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="112"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="112"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="112"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="112"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="112"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11836,49 +12923,49 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="92"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="92"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="92"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="92"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -11900,9 +12987,9 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="92"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="91" t="s">
         <v>137</v>
@@ -11912,17 +12999,17 @@
         <v>138</v>
       </c>
       <c r="G6" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="91" t="s">
         <v>296</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="92"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>137</v>
@@ -11932,27 +13019,27 @@
         <v>138</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="92"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92"/>
-      <c r="B9" s="112"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
@@ -11974,7 +13061,7 @@
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92"/>
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="88" t="s">
         <v>58</v>
       </c>
@@ -11994,7 +13081,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="92"/>
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="88" t="s">
         <v>62</v>
       </c>
@@ -12014,7 +13101,7 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="92"/>
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="88" t="s">
         <v>66</v>
       </c>
@@ -12032,91 +13119,91 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="92"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="92"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="115" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="92"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="92"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="92"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="92"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="92"/>
-      <c r="B20" s="112"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12150,8 +13237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="A1:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12173,46 +13260,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="106"/>
-      <c r="C3" s="126" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="106"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -12233,9 +13320,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D6" s="73" t="s">
         <v>137</v>
@@ -12245,25 +13332,25 @@
         <v>138</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="112"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="71" t="s">
         <v>52</v>
       </c>
@@ -12284,7 +13371,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="112"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="72" t="s">
         <v>58</v>
       </c>
@@ -12303,7 +13390,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="72" t="s">
         <v>62</v>
       </c>
@@ -12322,7 +13409,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="72" t="s">
         <v>66</v>
       </c>
@@ -12339,224 +13426,224 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="127"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
     </row>
     <row r="13" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="127"/>
-      <c r="C13" s="100" t="s">
-        <v>307</v>
+      <c r="B13" s="131"/>
+      <c r="C13" s="104" t="s">
+        <v>306</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="E13" s="104"/>
       <c r="F13" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="H13" s="101"/>
+      <c r="G13" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="127"/>
-      <c r="C14" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="100"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="104"/>
       <c r="F14" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="H14" s="101" t="s">
-        <v>323</v>
+      <c r="G14" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="127"/>
-      <c r="C15" s="100" t="s">
-        <v>309</v>
+      <c r="B15" s="131"/>
+      <c r="C15" s="104" t="s">
+        <v>308</v>
       </c>
       <c r="D15" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="101"/>
+      <c r="G15" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="127"/>
-      <c r="C16" s="100" t="s">
-        <v>310</v>
+      <c r="B16" s="131"/>
+      <c r="C16" s="104" t="s">
+        <v>309</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="E16" s="104"/>
       <c r="F16" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="101"/>
+      <c r="G16" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="127"/>
-      <c r="C17" s="100" t="s">
-        <v>308</v>
+      <c r="B17" s="131"/>
+      <c r="C17" s="104" t="s">
+        <v>307</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="E17" s="104"/>
       <c r="F17" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="100" t="s">
-        <v>316</v>
-      </c>
-      <c r="H17" s="101"/>
+      <c r="G17" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="127"/>
-      <c r="C18" s="100" t="s">
-        <v>319</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="E18" s="100"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="104"/>
       <c r="F18" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>323</v>
+      <c r="G18" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" s="105" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="127"/>
-      <c r="C19" s="100" t="s">
-        <v>312</v>
+      <c r="B19" s="131"/>
+      <c r="C19" s="104" t="s">
+        <v>311</v>
       </c>
       <c r="D19" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="101"/>
+      <c r="G19" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="2:8" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="127"/>
-      <c r="C20" s="100" t="s">
-        <v>311</v>
+      <c r="B20" s="131"/>
+      <c r="C20" s="104" t="s">
+        <v>310</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="E20" s="104"/>
       <c r="F20" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="101"/>
+      <c r="G20" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="112"/>
-      <c r="C21" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="112"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="112"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="112"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="112"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12614,52 +13701,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="97"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="97"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="126" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
       <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="97"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="71" t="s">
         <v>52</v>
       </c>
@@ -12682,22 +13769,22 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="97"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
       <c r="I6" s="97"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="97"/>
-      <c r="B7" s="112"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="71" t="s">
         <v>52</v>
       </c>
@@ -12720,7 +13807,7 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
-      <c r="B8" s="112"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="95" t="s">
         <v>58</v>
       </c>
@@ -12741,7 +13828,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="97"/>
-      <c r="B9" s="112"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="95" t="s">
         <v>62</v>
       </c>
@@ -12762,7 +13849,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="97"/>
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="95" t="s">
         <v>66</v>
       </c>
@@ -12781,117 +13868,117 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="97"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="97"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="97"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="100" t="s">
-        <v>325</v>
+      <c r="B12" s="131"/>
+      <c r="C12" s="104" t="s">
+        <v>324</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="E12" s="104"/>
       <c r="F12" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="H12" s="101"/>
+      <c r="G12" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="105"/>
       <c r="I12" s="97"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="97"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="115" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
       <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="97"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="97"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="97"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="97"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="97"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="97"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
       <c r="I18" s="97"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="97"/>
-      <c r="B19" s="112"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">

--- a/documents/接口文档/图片-接口文档.xlsx
+++ b/documents/接口文档/图片-接口文档.xlsx
@@ -29,14 +29,16 @@
     <sheet name="我关注的用户列表" sheetId="137" r:id="rId15"/>
     <sheet name="产品列表" sheetId="139" r:id="rId16"/>
     <sheet name="版本更新检测" sheetId="117" r:id="rId17"/>
-    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId18"/>
+    <sheet name="发送邮件验证码" sheetId="140" r:id="rId18"/>
+    <sheet name="绑定邮件" sheetId="141" r:id="rId19"/>
+    <sheet name="查询分组灯光设置详情" sheetId="4" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="404">
   <si>
     <t>接口描述</t>
   </si>
@@ -2385,6 +2387,81 @@
   </si>
   <si>
     <t>获取支付订单列表</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件验证码</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定邮件</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户绑定邮箱</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {}
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回清单</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/sendCode.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/bindEmail.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/bindEmail.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "1000",
+    "msg": "success",
+    "time": "20160825105813",
+    "data": {
+      "tips":"Bind your email success!"
+    }
+}</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示消息</t>
+  </si>
+  <si>
+    <t>提示消息</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -4332,7 +4409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4690,9 +4767,54 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4708,27 +4830,6 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4756,12 +4857,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4798,6 +4899,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4840,59 +4983,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="324">
@@ -5607,10 +5699,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="131"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="55" t="s">
@@ -5748,52 +5840,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="89"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="89"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
       <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="89"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -5816,7 +5908,7 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="89"/>
-      <c r="B6" s="130"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="86" t="s">
         <v>318</v>
       </c>
@@ -5834,7 +5926,7 @@
       <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="130"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="99" t="s">
         <v>319</v>
       </c>
@@ -5851,7 +5943,7 @@
       <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:9" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="130"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="99" t="s">
         <v>320</v>
       </c>
@@ -5869,22 +5961,22 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89"/>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="89"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -5907,7 +5999,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="87" t="s">
         <v>58</v>
       </c>
@@ -5928,7 +6020,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="87" t="s">
         <v>62</v>
       </c>
@@ -5949,7 +6041,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="87" t="s">
         <v>66</v>
       </c>
@@ -5968,98 +6060,98 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="127" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="89"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="89"/>
-      <c r="B21" s="124"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -6075,17 +6167,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H20"/>
-    <mergeCell ref="D21:H21"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H20"/>
+    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -6127,52 +6219,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -6195,7 +6287,7 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="105"/>
-      <c r="B6" s="130"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="99" t="s">
         <v>357</v>
       </c>
@@ -6216,22 +6308,22 @@
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="105"/>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
       <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="105"/>
-      <c r="B8" s="124"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
@@ -6254,7 +6346,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="101" t="s">
         <v>58</v>
       </c>
@@ -6275,7 +6367,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="101" t="s">
         <v>62</v>
       </c>
@@ -6296,7 +6388,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="101" t="s">
         <v>66</v>
       </c>
@@ -6314,18 +6406,18 @@
       <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="145"/>
-      <c r="C12" s="126" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
     </row>
     <row r="13" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="145"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="96" t="s">
         <v>268</v>
       </c>
@@ -6342,7 +6434,7 @@
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="145"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="96" t="s">
         <v>318</v>
       </c>
@@ -6359,7 +6451,7 @@
       <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="145"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="96" t="s">
         <v>319</v>
       </c>
@@ -6376,7 +6468,7 @@
       <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="145"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="96" t="s">
         <v>320</v>
       </c>
@@ -6393,7 +6485,7 @@
       <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="145"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="96" t="s">
         <v>360</v>
       </c>
@@ -6410,7 +6502,7 @@
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="145"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="96" t="s">
         <v>361</v>
       </c>
@@ -6427,7 +6519,7 @@
       <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="145"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="96" t="s">
         <v>362</v>
       </c>
@@ -6444,7 +6536,7 @@
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="145"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="96" t="s">
         <v>312</v>
       </c>
@@ -6461,7 +6553,7 @@
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="145"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="96" t="s">
         <v>363</v>
       </c>
@@ -6479,85 +6571,85 @@
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="142" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="105"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
       <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="105"/>
-      <c r="B28" s="124"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
       <c r="I28" s="105"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -6573,17 +6665,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C22:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C22:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -6625,52 +6717,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="95"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -6731,22 +6823,22 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="95"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="95"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -6769,7 +6861,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="95"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="92" t="s">
         <v>58</v>
       </c>
@@ -6790,7 +6882,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="95"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="92" t="s">
         <v>62</v>
       </c>
@@ -6811,7 +6903,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="95"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="92" t="s">
         <v>66</v>
       </c>
@@ -6830,20 +6922,20 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="95"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95"/>
-      <c r="B14" s="124"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="90" t="s">
         <v>274</v>
       </c>
@@ -6862,7 +6954,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="95"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="90" t="s">
         <v>213</v>
       </c>
@@ -6881,7 +6973,7 @@
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="95"/>
-      <c r="B16" s="124"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="90" t="s">
         <v>230</v>
       </c>
@@ -6900,7 +6992,7 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95"/>
-      <c r="B17" s="124"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="90" t="s">
         <v>229</v>
       </c>
@@ -6919,7 +7011,7 @@
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="90" t="s">
         <v>231</v>
       </c>
@@ -6938,7 +7030,7 @@
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="90" t="s">
         <v>336</v>
       </c>
@@ -6959,7 +7051,7 @@
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="90" t="s">
         <v>337</v>
       </c>
@@ -6978,85 +7070,85 @@
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="95"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="142" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
       <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="95"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
       <c r="I22" s="95"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="95"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="95"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="95"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="95"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="95"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="95"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
       <c r="I26" s="95"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="95"/>
-      <c r="B27" s="124"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
       <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -7072,17 +7164,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C21:H26"/>
-    <mergeCell ref="D27:H27"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -7103,7 +7195,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I21" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7126,52 +7218,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="95"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -7236,22 +7328,22 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="95"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="95"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -7274,7 +7366,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="95"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="92" t="s">
         <v>58</v>
       </c>
@@ -7295,7 +7387,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="95"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="92" t="s">
         <v>62</v>
       </c>
@@ -7316,7 +7408,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="95"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="92" t="s">
         <v>66</v>
       </c>
@@ -7335,98 +7427,98 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="95"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="142" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
       <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="95"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="95"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
       <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="95"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -7442,17 +7534,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -7494,52 +7586,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -7623,22 +7715,22 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -7661,7 +7753,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -7682,7 +7774,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -7703,7 +7795,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -7722,20 +7814,20 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="90" t="s">
         <v>274</v>
       </c>
@@ -7754,7 +7846,7 @@
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="124"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="90" t="s">
         <v>213</v>
       </c>
@@ -7773,7 +7865,7 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="124"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="90" t="s">
         <v>230</v>
       </c>
@@ -7792,7 +7884,7 @@
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="90" t="s">
         <v>231</v>
       </c>
@@ -7811,7 +7903,7 @@
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="90" t="s">
         <v>229</v>
       </c>
@@ -7830,85 +7922,85 @@
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="142" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="124"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7924,17 +8016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C20:H25"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B9:B26"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C20:H25"/>
-    <mergeCell ref="D26:H26"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <dataValidations count="1">
@@ -7978,52 +8070,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -8107,22 +8199,22 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -8145,7 +8237,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -8166,7 +8258,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -8187,7 +8279,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -8206,20 +8298,20 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="90" t="s">
         <v>274</v>
       </c>
@@ -8238,7 +8330,7 @@
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="124"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="90" t="s">
         <v>213</v>
       </c>
@@ -8257,7 +8349,7 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="124"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="90" t="s">
         <v>230</v>
       </c>
@@ -8276,7 +8368,7 @@
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="90" t="s">
         <v>231</v>
       </c>
@@ -8295,7 +8387,7 @@
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="90" t="s">
         <v>229</v>
       </c>
@@ -8314,85 +8406,85 @@
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="142" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="124"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -8408,17 +8500,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C20:H25"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B9:B26"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C20:H25"/>
-    <mergeCell ref="D26:H26"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <dataValidations count="1">
@@ -8460,52 +8552,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -8589,22 +8681,22 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -8627,7 +8719,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -8648,7 +8740,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -8669,7 +8761,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -8688,20 +8780,20 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="90" t="s">
         <v>377</v>
       </c>
@@ -8720,7 +8812,7 @@
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="124"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="90" t="s">
         <v>374</v>
       </c>
@@ -8739,85 +8831,85 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="142" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="124"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -8833,17 +8925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C17:H22"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C17:H22"/>
-    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -8863,7 +8955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="D20:J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8876,107 +8970,107 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="130"/>
-      <c r="C4" s="146" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="133"/>
+      <c r="C5" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="166"/>
       <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="130"/>
-      <c r="C6" s="188" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="189" t="s">
+      <c r="E6" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="189" t="s">
+      <c r="G6" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="129" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="C7" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="187"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="127"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="154"/>
-      <c r="C8" s="190" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190" t="s">
+      <c r="E8" s="130"/>
+      <c r="F8" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="190" t="s">
+      <c r="H8" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="187"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="154"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="17" t="s">
         <v>52</v>
       </c>
@@ -8998,7 +9092,7 @@
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="154"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="19" t="s">
         <v>58</v>
       </c>
@@ -9018,7 +9112,7 @@
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="154"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
@@ -9038,7 +9132,7 @@
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="154"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="19" t="s">
         <v>66</v>
       </c>
@@ -9056,19 +9150,19 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="154"/>
-      <c r="C13" s="147" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="154"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="23" t="s">
         <v>81</v>
       </c>
@@ -9086,7 +9180,7 @@
       <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="154"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="96" t="s">
         <v>381</v>
       </c>
@@ -9104,7 +9198,7 @@
       <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="154"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="96" t="s">
         <v>384</v>
       </c>
@@ -9122,7 +9216,7 @@
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="154"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="23" t="s">
         <v>83</v>
       </c>
@@ -9140,7 +9234,7 @@
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="154"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="23" t="s">
         <v>85</v>
       </c>
@@ -9160,7 +9254,7 @@
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="154"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="106" t="s">
         <v>87</v>
       </c>
@@ -9180,7 +9274,7 @@
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="2:9" s="63" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="154"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="61" t="s">
         <v>90</v>
       </c>
@@ -9200,7 +9294,7 @@
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="154"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="59" t="s">
         <v>380</v>
       </c>
@@ -9218,31 +9312,31 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="154"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="158" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="155"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="43"/>
     </row>
   </sheetData>
@@ -9275,633 +9369,744 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A16:XFD29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="52.375" customWidth="1"/>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="129" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="126"/>
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="177" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="129"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="2" t="s">
+      <c r="C2" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="126"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="126"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
+        <v>394</v>
+      </c>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="126"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="126"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="126"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H5" s="67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="129"/>
-      <c r="C5" s="179" t="s">
+      <c r="I5" s="126"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="126"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="126"/>
+      <c r="B7" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="126"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="126"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="126"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="126"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="126"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="126"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="126"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="126"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" s="126" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="154"/>
+      <c r="C12" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="126"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="123" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="129"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="129"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="129"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="129"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="129"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="129"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="129"/>
-      <c r="C12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="129"/>
-      <c r="C13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="164"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="129"/>
-      <c r="C14" s="182" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="129"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="167" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="169"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="176" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
-      <c r="C17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="173" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="174"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
-      <c r="C18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
-      <c r="C19" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="125"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
-      <c r="C20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="124"/>
-      <c r="C21" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124"/>
-      <c r="C22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="125"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="124"/>
-      <c r="C23" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="125"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="124"/>
-      <c r="C24" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="186" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="186"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="124"/>
-      <c r="C25" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="124"/>
-      <c r="C26" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="124"/>
-      <c r="C27" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-    </row>
-    <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="152"/>
-    </row>
-    <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="152"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-    </row>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G13" s="123" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="195"/>
+      <c r="I13" s="126"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="126"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="142" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="126"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="126"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="126"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="126"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="126"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="126"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="126"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="126"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="126"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="126"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="126"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="126"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="126"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B29"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="C16:I16"/>
+  <mergeCells count="11">
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F27 G5:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F11 F13">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="H9" location="错误码!A1" display="错误码"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="126"/>
+      <c r="B2" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="126"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="126"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="126"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="126"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="126"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="126"/>
+    </row>
+    <row r="6" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="125"/>
+      <c r="C6" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="98"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="126"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="126"/>
+      <c r="B8" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="126"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="126"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="126"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="126"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="126"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="126"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="126"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="126"/>
+    </row>
+    <row r="13" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="154"/>
+      <c r="C13" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="126"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="123" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="195"/>
+      <c r="I14" s="126"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="126"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="126"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="126"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="126"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="126"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="126"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="126"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="126"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="126"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="126"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="126"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="126"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="126"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="126"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C15:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12 F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="接口清单!B8" display="返回清单"/>
+    <hyperlink ref="H10" location="错误码!A1" display="错误码"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9923,11 +10128,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
@@ -12729,12 +12934,644 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A16:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="52.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="181" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="132"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="132"/>
+      <c r="C5" s="171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="132"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="132"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="132"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="132"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="132"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="132"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="132"/>
+      <c r="C12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="132"/>
+      <c r="C13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="184" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="132"/>
+      <c r="C14" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="184" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="132"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="191"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="168" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="192" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="139"/>
+      <c r="C17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="179" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="180"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="139"/>
+      <c r="C18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="139"/>
+      <c r="C19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="140"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="139"/>
+      <c r="C20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="139"/>
+      <c r="C21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="139"/>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="140"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="139"/>
+      <c r="C23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="140"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="139"/>
+      <c r="C24" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="178"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="139"/>
+      <c r="C25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="139"/>
+      <c r="C26" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="139"/>
+      <c r="C27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+    </row>
+    <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+    </row>
+    <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="177" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+    </row>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F27 G5:G12">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12750,15 +13587,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
@@ -13262,6 +14099,48 @@
       </c>
       <c r="G25" s="76" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="74">
+        <v>25</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="74">
+        <v>26</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -13282,6 +14161,8 @@
     <hyperlink ref="B7" location="粉丝列表!A1" display="粉丝列表"/>
     <hyperlink ref="B6" location="我关注的用户列表!A1" display="我关注的用户列表"/>
     <hyperlink ref="B23" location="产品列表!A1" display="产品列表"/>
+    <hyperlink ref="B26" location="发送邮件验证码!A1" display="发送邮件验证码"/>
+    <hyperlink ref="B27" location="绑定邮件!A1" display="绑定邮件"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -13311,46 +14192,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -13460,20 +14341,20 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="67" t="s">
         <v>52</v>
       </c>
@@ -13494,7 +14375,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="68" t="s">
         <v>58</v>
       </c>
@@ -13513,7 +14394,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="124"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="68" t="s">
         <v>62</v>
       </c>
@@ -13532,7 +14413,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="68" t="s">
         <v>66</v>
       </c>
@@ -13549,18 +14430,18 @@
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="124"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="139"/>
+      <c r="C16" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="90" t="s">
         <v>274</v>
       </c>
@@ -13577,7 +14458,7 @@
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="90" t="s">
         <v>213</v>
       </c>
@@ -13594,7 +14475,7 @@
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="90" t="s">
         <v>214</v>
       </c>
@@ -13611,7 +14492,7 @@
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="90" t="s">
         <v>217</v>
       </c>
@@ -13628,7 +14509,7 @@
       <c r="H20" s="81"/>
     </row>
     <row r="21" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="124"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="90" t="s">
         <v>219</v>
       </c>
@@ -13645,7 +14526,7 @@
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="90" t="s">
         <v>221</v>
       </c>
@@ -13662,7 +14543,7 @@
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="124"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="90" t="s">
         <v>223</v>
       </c>
@@ -13681,7 +14562,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="124"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="90" t="s">
         <v>287</v>
       </c>
@@ -13700,7 +14581,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="124"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="90" t="s">
         <v>227</v>
       </c>
@@ -13717,7 +14598,7 @@
       <c r="H25" s="81"/>
     </row>
     <row r="26" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="124"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="90" t="s">
         <v>229</v>
       </c>
@@ -13734,7 +14615,7 @@
       <c r="H26" s="81"/>
     </row>
     <row r="27" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="124"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="90" t="s">
         <v>230</v>
       </c>
@@ -13751,7 +14632,7 @@
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="124"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="90" t="s">
         <v>231</v>
       </c>
@@ -13768,7 +14649,7 @@
       <c r="H28" s="81"/>
     </row>
     <row r="29" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="124"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="90" t="s">
         <v>232</v>
       </c>
@@ -13787,7 +14668,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="124"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="90" t="s">
         <v>233</v>
       </c>
@@ -13806,7 +14687,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="124"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="90" t="s">
         <v>276</v>
       </c>
@@ -13823,7 +14704,7 @@
       <c r="H31" s="81"/>
     </row>
     <row r="32" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="124"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="90" t="s">
         <v>235</v>
       </c>
@@ -13840,7 +14721,7 @@
       <c r="H32" s="81"/>
     </row>
     <row r="33" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="124"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="90" t="s">
         <v>242</v>
       </c>
@@ -13859,7 +14740,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="124"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="90" t="s">
         <v>244</v>
       </c>
@@ -13878,7 +14759,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="124"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="90" t="s">
         <v>245</v>
       </c>
@@ -13895,7 +14776,7 @@
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="124"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="90" t="s">
         <v>246</v>
       </c>
@@ -13912,7 +14793,7 @@
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="124"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="90" t="s">
         <v>247</v>
       </c>
@@ -13929,7 +14810,7 @@
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="124"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="90" t="s">
         <v>248</v>
       </c>
@@ -13946,7 +14827,7 @@
       <c r="H38" s="81"/>
     </row>
     <row r="39" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="124"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="90" t="s">
         <v>289</v>
       </c>
@@ -13963,7 +14844,7 @@
       <c r="H39" s="81"/>
     </row>
     <row r="40" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="124"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="90" t="s">
         <v>249</v>
       </c>
@@ -13980,7 +14861,7 @@
       <c r="H40" s="81"/>
     </row>
     <row r="41" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="124"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="90" t="s">
         <v>250</v>
       </c>
@@ -13999,7 +14880,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="124"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="90" t="s">
         <v>251</v>
       </c>
@@ -14018,7 +14899,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="124"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="90" t="s">
         <v>252</v>
       </c>
@@ -14035,7 +14916,7 @@
       <c r="H43" s="81"/>
     </row>
     <row r="44" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="124"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="90" t="s">
         <v>253</v>
       </c>
@@ -14052,7 +14933,7 @@
       <c r="H44" s="81"/>
     </row>
     <row r="45" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="124"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="90" t="s">
         <v>254</v>
       </c>
@@ -14071,7 +14952,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="124"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="90" t="s">
         <v>255</v>
       </c>
@@ -14088,87 +14969,87 @@
       <c r="H46" s="81"/>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="124"/>
-      <c r="C47" s="127" t="s">
+      <c r="B47" s="139"/>
+      <c r="C47" s="142" t="s">
         <v>291</v>
       </c>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="124"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="124"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="124"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
     </row>
     <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="124"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="124"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
     </row>
     <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="124"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="128" t="s">
+      <c r="D53" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:B53"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C47:H52"/>
+    <mergeCell ref="D53:H53"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B11:B53"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C47:H52"/>
-    <mergeCell ref="D53:H53"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -14207,46 +15088,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -14318,20 +15199,20 @@
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -14352,7 +15233,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="80" t="s">
         <v>58</v>
       </c>
@@ -14371,7 +15252,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="80" t="s">
         <v>62</v>
       </c>
@@ -14390,7 +15271,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="124"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="80" t="s">
         <v>66</v>
       </c>
@@ -14407,18 +15288,18 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="124"/>
-      <c r="C14" s="126" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="90" t="s">
         <v>274</v>
       </c>
@@ -14435,7 +15316,7 @@
       <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="124"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="90" t="s">
         <v>213</v>
       </c>
@@ -14452,7 +15333,7 @@
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="90" t="s">
         <v>269</v>
       </c>
@@ -14471,7 +15352,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="90" t="s">
         <v>214</v>
       </c>
@@ -14490,7 +15371,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="90" t="s">
         <v>219</v>
       </c>
@@ -14507,7 +15388,7 @@
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="90" t="s">
         <v>270</v>
       </c>
@@ -14524,7 +15405,7 @@
       <c r="H20" s="81"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="124"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="90" t="s">
         <v>223</v>
       </c>
@@ -14541,7 +15422,7 @@
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="90" t="s">
         <v>230</v>
       </c>
@@ -14558,7 +15439,7 @@
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="124"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="90" t="s">
         <v>287</v>
       </c>
@@ -14575,7 +15456,7 @@
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="124"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="90" t="s">
         <v>231</v>
       </c>
@@ -14592,7 +15473,7 @@
       <c r="H24" s="81"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="124"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="90" t="s">
         <v>232</v>
       </c>
@@ -14611,7 +15492,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="124"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="90" t="s">
         <v>271</v>
       </c>
@@ -14630,7 +15511,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="124"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="90" t="s">
         <v>272</v>
       </c>
@@ -14647,7 +15528,7 @@
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="124"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="90" t="s">
         <v>229</v>
       </c>
@@ -14664,7 +15545,7 @@
       <c r="H28" s="81"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="124"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="90" t="s">
         <v>233</v>
       </c>
@@ -14683,7 +15564,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="124"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="90" t="s">
         <v>217</v>
       </c>
@@ -14700,87 +15581,87 @@
       <c r="H30" s="81"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="124"/>
-      <c r="C31" s="127" t="s">
+      <c r="B31" s="139"/>
+      <c r="C31" s="142" t="s">
         <v>278</v>
       </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="124"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="124"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="124"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="124"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="124"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="124"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="128" t="s">
+      <c r="D37" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B37"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C31:H36"/>
+    <mergeCell ref="D37:H37"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B9:B37"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C31:H36"/>
-    <mergeCell ref="D37:H37"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -14816,46 +15697,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="130"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="130"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -14876,7 +15757,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="130"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="83" t="s">
         <v>280</v>
       </c>
@@ -14895,7 +15776,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="130"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="83" t="s">
         <v>282</v>
       </c>
@@ -14912,20 +15793,20 @@
       <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -14946,7 +15827,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="80" t="s">
         <v>58</v>
       </c>
@@ -14965,7 +15846,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="80" t="s">
         <v>62</v>
       </c>
@@ -14984,7 +15865,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="80" t="s">
         <v>66</v>
       </c>
@@ -15001,98 +15882,98 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="124"/>
-      <c r="C13" s="126" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="124"/>
-      <c r="C14" s="127" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="124"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15135,49 +16016,49 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="84"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="84"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -15199,7 +16080,7 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
-      <c r="B6" s="130"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="83" t="s">
         <v>280</v>
       </c>
@@ -15219,7 +16100,7 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
-      <c r="B7" s="130"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="83" t="s">
         <v>282</v>
       </c>
@@ -15237,21 +16118,21 @@
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -15273,7 +16154,7 @@
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="80" t="s">
         <v>58</v>
       </c>
@@ -15293,7 +16174,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="80" t="s">
         <v>62</v>
       </c>
@@ -15313,7 +16194,7 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
-      <c r="B12" s="124"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="80" t="s">
         <v>66</v>
       </c>
@@ -15331,105 +16212,105 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="84"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="84"/>
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15470,46 +16351,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="130"/>
-      <c r="C3" s="146" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146" t="s">
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -15530,7 +16411,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="130"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="69" t="s">
         <v>292</v>
       </c>
@@ -15547,20 +16428,20 @@
       <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="124"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
@@ -15581,7 +16462,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="68" t="s">
         <v>58</v>
       </c>
@@ -15600,7 +16481,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="68" t="s">
         <v>62</v>
       </c>
@@ -15619,7 +16500,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="124"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="68" t="s">
         <v>66</v>
       </c>
@@ -15636,18 +16517,18 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="145"/>
-      <c r="C12" s="126" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
     </row>
     <row r="13" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="145"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="96" t="s">
         <v>294</v>
       </c>
@@ -15664,7 +16545,7 @@
       <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="145"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="96" t="s">
         <v>307</v>
       </c>
@@ -15683,7 +16564,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="145"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="96" t="s">
         <v>296</v>
       </c>
@@ -15700,7 +16581,7 @@
       <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="145"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="96" t="s">
         <v>297</v>
       </c>
@@ -15717,7 +16598,7 @@
       <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="145"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="96" t="s">
         <v>295</v>
       </c>
@@ -15734,7 +16615,7 @@
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="145"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="96" t="s">
         <v>306</v>
       </c>
@@ -15753,7 +16634,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="145"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="96" t="s">
         <v>299</v>
       </c>
@@ -15770,7 +16651,7 @@
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="145"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="96" t="s">
         <v>298</v>
       </c>
@@ -15787,87 +16668,87 @@
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="124"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="142" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="124"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="124"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="124"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="124"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B7:B27"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C21:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15911,52 +16792,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="89"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="89"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="146" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146" t="s">
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
       <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="89"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="135" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -15979,22 +16860,22 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="89"/>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="89"/>
-      <c r="B7" s="124"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="67" t="s">
         <v>52</v>
       </c>
@@ -16017,7 +16898,7 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="89"/>
-      <c r="B8" s="124"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="87" t="s">
         <v>58</v>
       </c>
@@ -16038,7 +16919,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89"/>
-      <c r="B9" s="124"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="87" t="s">
         <v>62</v>
       </c>
@@ -16059,7 +16940,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
-      <c r="B10" s="124"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="87" t="s">
         <v>66</v>
       </c>
@@ -16078,20 +16959,20 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="126" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
       <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
-      <c r="B12" s="145"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="96" t="s">
         <v>312</v>
       </c>
@@ -16110,85 +16991,85 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="127" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
       <c r="I13" s="89"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
       <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -16204,17 +17085,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H18"/>
-    <mergeCell ref="D19:H19"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H18"/>
+    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">

--- a/documents/接口文档/图片-接口文档.xlsx
+++ b/documents/接口文档/图片-接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" tabRatio="759" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" tabRatio="759"/>
   </bookViews>
   <sheets>
     <sheet name="接口描述" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="410">
   <si>
     <t>接口描述</t>
   </si>
@@ -317,28 +317,6 @@
   </si>
   <si>
     <t>参数内容</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ystemType</t>
-    </r>
   </si>
   <si>
     <t>系统类型</t>
@@ -892,10 +870,6 @@
   </si>
   <si>
     <t>/photo/fans.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
-    <t>/photo/updatePersonalInfo.action</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
@@ -1932,10 +1906,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/buy.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -2427,10 +2397,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>/photo/bindEmail.action</t>
-    <phoneticPr fontId="45" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
@@ -2455,13 +2421,66 @@
   </si>
   <si>
     <t>提示消息</t>
-  </si>
-  <si>
-    <t>提示消息</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>1.0</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/like.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/updatePersonalInfo.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/myFowllowed.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回清单</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelId</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数内容</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ysType</t>
+    </r>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/version.action</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -4791,9 +4810,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4815,21 +4852,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4857,12 +4879,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4899,6 +4921,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4934,57 +5004,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="324">
@@ -5686,7 +5705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5699,10 +5718,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="132"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="55" t="s">
@@ -5749,7 +5768,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5757,12 +5776,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>13</v>
@@ -5770,18 +5789,18 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,7 +5808,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5797,7 +5816,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +5835,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G8"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5840,52 +5859,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="89"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="144" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="89"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="147" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="148" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="89"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="150" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -5908,75 +5927,75 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="89"/>
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="133"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="99" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="99"/>
       <c r="F7" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G7" s="99" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:9" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="133"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="99" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="99"/>
       <c r="F8" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="89"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -5999,7 +6018,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="87" t="s">
         <v>58</v>
       </c>
@@ -6020,7 +6039,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="87" t="s">
         <v>62</v>
       </c>
@@ -6041,7 +6060,7 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="87" t="s">
         <v>66</v>
       </c>
@@ -6060,98 +6079,98 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="89"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="89"/>
-      <c r="B21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -6167,17 +6186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H20"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H20"/>
-    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -6197,7 +6216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6219,52 +6240,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="144" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="148" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="150" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -6287,43 +6308,43 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="105"/>
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="99" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D6" s="104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="99"/>
       <c r="F6" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="105"/>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="105"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
@@ -6346,7 +6367,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="101" t="s">
         <v>58</v>
       </c>
@@ -6367,7 +6388,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="101" t="s">
         <v>62</v>
       </c>
@@ -6388,7 +6409,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="101" t="s">
         <v>66</v>
       </c>
@@ -6407,249 +6428,249 @@
     </row>
     <row r="12" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="154"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="154"/>
       <c r="C13" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="154"/>
       <c r="C14" s="96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="154"/>
       <c r="C15" s="96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="96" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="154"/>
       <c r="C16" s="96" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="96" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="154"/>
       <c r="C17" s="96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="96" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="154"/>
       <c r="C18" s="96" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="96" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="96" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="154"/>
       <c r="C19" s="96" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="96" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="154"/>
       <c r="C20" s="96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="1:9" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="154"/>
       <c r="C21" s="96" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H21" s="97"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="105"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
       <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="105"/>
-      <c r="B28" s="139"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
       <c r="I28" s="105"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -6665,17 +6686,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C22:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C22:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -6695,7 +6716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6717,52 +6740,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="95"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -6787,17 +6810,17 @@
       <c r="A6" s="95"/>
       <c r="B6" s="94"/>
       <c r="C6" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="95"/>
@@ -6806,7 +6829,7 @@
       <c r="A7" s="95"/>
       <c r="B7" s="94"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>72</v>
@@ -6816,29 +6839,29 @@
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="95"/>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="95"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -6861,7 +6884,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="95"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="92" t="s">
         <v>58</v>
       </c>
@@ -6882,7 +6905,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="95"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="92" t="s">
         <v>62</v>
       </c>
@@ -6897,13 +6920,13 @@
         <v>64</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="95"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="92" t="s">
         <v>66</v>
       </c>
@@ -6922,233 +6945,233 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="95"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="141" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95"/>
-      <c r="B14" s="139"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="93"/>
       <c r="F14" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="95"/>
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="93"/>
       <c r="F15" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="95"/>
-      <c r="B16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="93"/>
       <c r="F16" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H16" s="93"/>
       <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95"/>
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="93"/>
       <c r="F17" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="93"/>
       <c r="F19" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="93" t="s">
         <v>330</v>
-      </c>
-      <c r="H19" s="93" t="s">
-        <v>333</v>
       </c>
       <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="90" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="93"/>
       <c r="F20" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="95"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="95"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="142" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="95"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="95"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="95"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="95"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="95"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="95"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="95"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="95"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
       <c r="I26" s="95"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="95"/>
-      <c r="B27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
       <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -7164,17 +7187,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C21:H26"/>
-    <mergeCell ref="D27:H27"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -7195,7 +7218,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:I21"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7218,52 +7241,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="95"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="95"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="95"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -7288,20 +7311,20 @@
       <c r="A6" s="95"/>
       <c r="B6" s="94"/>
       <c r="C6" s="67" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="67" t="s">
         <v>330</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>333</v>
       </c>
       <c r="I6" s="95"/>
     </row>
@@ -7309,41 +7332,41 @@
       <c r="A7" s="95"/>
       <c r="B7" s="94"/>
       <c r="C7" s="67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="67" t="s">
         <v>331</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>334</v>
       </c>
       <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="95"/>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="95"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -7366,7 +7389,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="95"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="92" t="s">
         <v>58</v>
       </c>
@@ -7387,7 +7410,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="95"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="92" t="s">
         <v>62</v>
       </c>
@@ -7402,13 +7425,13 @@
         <v>64</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="95"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="92" t="s">
         <v>66</v>
       </c>
@@ -7427,98 +7450,98 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="95"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="141" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="142" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="95"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="95"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
       <c r="I20" s="95"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -7534,17 +7557,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -7564,7 +7587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7586,52 +7611,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -7656,17 +7681,17 @@
       <c r="A6" s="105"/>
       <c r="B6" s="103"/>
       <c r="C6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="105"/>
@@ -7675,7 +7700,7 @@
       <c r="A7" s="105"/>
       <c r="B7" s="103"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>72</v>
@@ -7685,10 +7710,10 @@
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I7" s="105"/>
     </row>
@@ -7696,41 +7721,41 @@
       <c r="A8" s="105"/>
       <c r="B8" s="103"/>
       <c r="C8" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -7753,7 +7778,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -7774,7 +7799,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -7789,13 +7814,13 @@
         <v>64</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -7814,193 +7839,193 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="102"/>
       <c r="F16" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="102"/>
       <c r="F17" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H17" s="102"/>
       <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="102"/>
       <c r="F18" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="102"/>
       <c r="F19" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="139"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8016,17 +8041,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B26"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C20:H25"/>
-    <mergeCell ref="D26:H26"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C20:H25"/>
+    <mergeCell ref="D26:H26"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <dataValidations count="1">
@@ -8047,7 +8072,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="A1:I27"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8070,52 +8095,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>348</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -8140,17 +8165,17 @@
       <c r="A6" s="105"/>
       <c r="B6" s="103"/>
       <c r="C6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="105"/>
@@ -8159,7 +8184,7 @@
       <c r="A7" s="105"/>
       <c r="B7" s="103"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>72</v>
@@ -8169,10 +8194,10 @@
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I7" s="105"/>
     </row>
@@ -8180,41 +8205,41 @@
       <c r="A8" s="105"/>
       <c r="B8" s="103"/>
       <c r="C8" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -8237,7 +8262,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -8258,7 +8283,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -8273,13 +8298,13 @@
         <v>64</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -8298,193 +8323,193 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="102"/>
       <c r="F16" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="102"/>
       <c r="F17" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H17" s="102"/>
       <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="102"/>
       <c r="F18" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H18" s="102"/>
       <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="102"/>
       <c r="F19" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="105"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="105"/>
-      <c r="B26" s="139"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
       <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -8500,17 +8525,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B26"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C20:H25"/>
-    <mergeCell ref="D26:H26"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C20:H25"/>
+    <mergeCell ref="D26:H26"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <dataValidations count="1">
@@ -8530,7 +8555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8539,7 +8566,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="105"/>
@@ -8552,52 +8579,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="105"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="105"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="105"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -8622,17 +8649,17 @@
       <c r="A6" s="105"/>
       <c r="B6" s="103"/>
       <c r="C6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="105"/>
@@ -8641,20 +8668,20 @@
       <c r="A7" s="105"/>
       <c r="B7" s="103"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I7" s="105"/>
     </row>
@@ -8662,41 +8689,39 @@
       <c r="A8" s="105"/>
       <c r="B8" s="103"/>
       <c r="C8" s="67" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>353</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="H8" s="67"/>
       <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -8719,7 +8744,7 @@
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="105"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="101" t="s">
         <v>58</v>
       </c>
@@ -8740,7 +8765,7 @@
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="105"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="101" t="s">
         <v>62</v>
       </c>
@@ -8755,13 +8780,13 @@
         <v>64</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="105"/>
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="101" t="s">
         <v>66</v>
       </c>
@@ -8780,136 +8805,136 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="105"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="105"/>
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="105"/>
-      <c r="B16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="90" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="102"/>
       <c r="F16" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H16" s="102"/>
       <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="105"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="105"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="105"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="105"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="105"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="105"/>
-      <c r="B23" s="139"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
       <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -8925,17 +8950,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C17:H22"/>
-    <mergeCell ref="D23:H23"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C17:H22"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -8956,7 +8981,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="D20:J24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8966,55 +8991,55 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="153" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
-      <c r="C5" s="164" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="166"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="165" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="167"/>
       <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="128" t="s">
         <v>52</v>
       </c>
@@ -9036,7 +9061,7 @@
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="162" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="130" t="s">
@@ -9050,9 +9075,9 @@
       <c r="I7" s="127"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="130" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="D8" s="130" t="s">
         <v>69</v>
@@ -9062,15 +9087,15 @@
         <v>60</v>
       </c>
       <c r="G8" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="130" t="s">
-        <v>80</v>
-      </c>
       <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="17" t="s">
         <v>52</v>
       </c>
@@ -9092,7 +9117,7 @@
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="19" t="s">
         <v>58</v>
       </c>
@@ -9112,7 +9137,7 @@
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
@@ -9132,7 +9157,7 @@
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="162"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="19" t="s">
         <v>66</v>
       </c>
@@ -9150,21 +9175,21 @@
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="162"/>
-      <c r="C13" s="155" t="s">
+      <c r="B13" s="163"/>
+      <c r="C13" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>73</v>
@@ -9174,51 +9199,51 @@
         <v>63</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="96" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D15" s="106" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="96"/>
       <c r="F15" s="96" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H15" s="107"/>
       <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="96" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D16" s="106" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="96" t="s">
         <v>382</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>385</v>
       </c>
       <c r="H16" s="107"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>69</v>
@@ -9228,15 +9253,15 @@
         <v>63</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>59</v>
@@ -9246,17 +9271,17 @@
         <v>63</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="163"/>
+      <c r="C19" s="106" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="162"/>
-      <c r="C19" s="106" t="s">
-        <v>87</v>
       </c>
       <c r="D19" s="106" t="s">
         <v>59</v>
@@ -9266,17 +9291,17 @@
         <v>60</v>
       </c>
       <c r="G19" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="2:9" s="63" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="163"/>
+      <c r="C20" s="61" t="s">
         <v>89</v>
-      </c>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="2:9" s="63" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="162"/>
-      <c r="C20" s="61" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>72</v>
@@ -9286,57 +9311,57 @@
         <v>60</v>
       </c>
       <c r="G20" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="62" t="s">
-        <v>92</v>
-      </c>
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="60" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="162"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="59" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>139</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>140</v>
       </c>
       <c r="H21" s="64"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="162"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="158" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="D22" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="161"/>
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="163"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
       <c r="I23" s="43"/>
     </row>
   </sheetData>
@@ -9371,7 +9396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9380,7 +9407,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9393,52 +9420,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="126"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="126"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="126"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="126"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="126"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="126"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="126"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -9463,39 +9490,39 @@
       <c r="A6" s="126"/>
       <c r="B6" s="125"/>
       <c r="C6" s="67" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="126"/>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="126"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
@@ -9518,7 +9545,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="123" t="s">
         <v>58</v>
       </c>
@@ -9539,7 +9566,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="123" t="s">
         <v>62</v>
       </c>
@@ -9554,13 +9581,13 @@
         <v>64</v>
       </c>
       <c r="H10" s="123" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="123" t="s">
         <v>66</v>
       </c>
@@ -9579,20 +9606,20 @@
     </row>
     <row r="12" spans="1:9" s="126" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="154"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="123" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="D13" s="123" t="s">
         <v>59</v>
@@ -9602,92 +9629,92 @@
         <v>63</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" s="195"/>
+        <v>409</v>
+      </c>
+      <c r="H13" s="131"/>
       <c r="I13" s="126"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="142" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="126"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="126"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -9703,17 +9730,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -9734,7 +9761,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9757,52 +9784,52 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="126"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="126"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="126"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="126"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="126"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="126"/>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="126"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -9826,57 +9853,57 @@
     <row r="6" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="125"/>
       <c r="C6" s="98" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="98"/>
       <c r="F6" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="98" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="126"/>
       <c r="B7" s="125"/>
       <c r="C7" s="67" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="126"/>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="126"/>
     </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -9897,9 +9924,9 @@
       </c>
       <c r="I9" s="126"/>
     </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="123" t="s">
         <v>58</v>
       </c>
@@ -9918,9 +9945,9 @@
       </c>
       <c r="I10" s="126"/>
     </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="123" t="s">
         <v>62</v>
       </c>
@@ -9935,15 +9962,15 @@
         <v>64</v>
       </c>
       <c r="H11" s="123" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="123" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D12" s="123" t="s">
         <v>59</v>
@@ -9960,20 +9987,20 @@
     </row>
     <row r="13" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="154"/>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="139"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="123" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D14" s="123" t="s">
         <v>59</v>
@@ -9983,92 +10010,92 @@
         <v>63</v>
       </c>
       <c r="G14" s="123" t="s">
-        <v>402</v>
-      </c>
-      <c r="H14" s="195"/>
+        <v>397</v>
+      </c>
+      <c r="H14" s="131"/>
       <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142" t="s">
-        <v>400</v>
-      </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="126"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="126"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="126"/>
     </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="126"/>
-      <c r="B21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -10084,17 +10111,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C15:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C15:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -10128,11 +10155,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
@@ -12956,24 +12983,24 @@
     <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="181" t="s">
+      <c r="C3" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="170"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="132"/>
-      <c r="C4" s="170"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="187"/>
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
@@ -12994,12 +13021,12 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="132"/>
-      <c r="C5" s="171" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="188" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>59</v>
@@ -13009,15 +13036,15 @@
         <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="138"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="132"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>59</v>
@@ -13027,7 +13054,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>65</v>
@@ -13037,10 +13064,10 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="132"/>
-      <c r="C7" s="172"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>59</v>
@@ -13050,7 +13077,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="14"/>
       <c r="K7" s="32"/>
@@ -13058,10 +13085,10 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="132"/>
-      <c r="C8" s="172"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -13071,7 +13098,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="9"/>
       <c r="K8" s="32"/>
@@ -13079,10 +13106,10 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="132"/>
-      <c r="C9" s="173"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
@@ -13092,20 +13119,20 @@
         <v>60</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="132"/>
-      <c r="C10" s="173"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="190"/>
       <c r="D10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -13115,20 +13142,20 @@
         <v>60</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="132"/>
-      <c r="C11" s="173"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>59</v>
@@ -13138,22 +13165,22 @@
         <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>59</v>
@@ -13163,87 +13190,87 @@
         <v>60</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="132"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
       <c r="K13" s="35"/>
       <c r="L13" s="36"/>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="132"/>
-      <c r="C14" s="174" t="s">
+      <c r="B14" s="138"/>
+      <c r="C14" s="191" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="184" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
       <c r="K14" s="35"/>
       <c r="L14" s="36"/>
       <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="132"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="189" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="191"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178"/>
       <c r="K15" s="35"/>
       <c r="L15" s="36"/>
       <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="168" t="s">
+      <c r="B16" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="181"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="17" t="s">
         <v>52</v>
       </c>
@@ -13259,18 +13286,18 @@
       <c r="G17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="179" t="s">
+      <c r="H17" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="180"/>
+      <c r="I17" s="183"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>59</v>
@@ -13282,13 +13309,13 @@
       <c r="G18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>59</v>
@@ -13300,15 +13327,15 @@
       <c r="G19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="134"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>59</v>
@@ -13320,13 +13347,13 @@
       <c r="G20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>59</v>
@@ -13336,13 +13363,13 @@
         <v>63</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
+        <v>94</v>
+      </c>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="139"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="19" t="s">
         <v>74</v>
       </c>
@@ -13354,17 +13381,17 @@
         <v>60</v>
       </c>
       <c r="G22" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="I22" s="134"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="133"/>
+      <c r="C23" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="I22" s="140"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="139"/>
-      <c r="C23" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>59</v>
@@ -13374,17 +13401,17 @@
         <v>60</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="140" t="s">
+      <c r="I23" s="134"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="133"/>
+      <c r="C24" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="I23" s="140"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="139"/>
-      <c r="C24" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>59</v>
@@ -13394,15 +13421,15 @@
         <v>60</v>
       </c>
       <c r="G24" s="31"/>
-      <c r="H24" s="178" t="s">
+      <c r="H24" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="195"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="133"/>
+      <c r="C25" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="I24" s="178"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="139"/>
-      <c r="C25" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>59</v>
@@ -13412,15 +13439,15 @@
         <v>60</v>
       </c>
       <c r="G25" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="133"/>
+      <c r="C26" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="139"/>
-      <c r="C26" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>59</v>
@@ -13430,15 +13457,15 @@
         <v>60</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
+        <v>128</v>
+      </c>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>59</v>
@@ -13448,92 +13475,82 @@
         <v>60</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
+        <v>121</v>
+      </c>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
-      <c r="B28" s="139"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="158" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
+      <c r="D28" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
     </row>
     <row r="29" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
-      <c r="B29" s="139"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="158" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="177" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
+      <c r="B31" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="167" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
     </row>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B29"/>
@@ -13550,6 +13567,16 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -13570,8 +13597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13587,37 +13614,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="A1" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="C2" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="E2" s="72" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>148</v>
       </c>
       <c r="F2" s="72" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -13625,13 +13652,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="75" t="s">
@@ -13646,13 +13673,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="75" t="s">
@@ -13667,17 +13694,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>44</v>
@@ -13688,17 +13715,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="76"/>
     </row>
@@ -13707,17 +13734,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="76" t="s">
         <v>44</v>
@@ -13728,17 +13755,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="76" t="s">
         <v>44</v>
@@ -13749,13 +13776,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="114"/>
       <c r="F9" s="116" t="s">
@@ -13770,13 +13797,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="120" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="120"/>
       <c r="F10" s="121" t="s">
@@ -13791,17 +13818,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="117" t="s">
         <v>44</v>
@@ -13812,13 +13839,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="115" t="s">
-        <v>179</v>
-      </c>
       <c r="D12" s="114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="116" t="s">
@@ -13833,17 +13860,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E13" s="71"/>
       <c r="F13" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>44</v>
@@ -13854,17 +13881,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" s="76" t="s">
         <v>44</v>
@@ -13875,17 +13902,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="71"/>
       <c r="F15" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="76" t="s">
         <v>44</v>
@@ -13896,13 +13923,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E16" s="71"/>
       <c r="F16" s="75" t="s">
@@ -13917,13 +13944,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E17" s="71"/>
       <c r="F17" s="75" t="s">
@@ -13938,17 +13965,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" s="76" t="s">
         <v>44</v>
@@ -13959,17 +13986,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19" s="76" t="s">
         <v>44</v>
@@ -13980,17 +14007,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" s="76" t="s">
         <v>44</v>
@@ -14001,17 +14028,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C21" s="111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="71"/>
       <c r="F21" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>44</v>
@@ -14022,13 +14049,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="75" t="s">
@@ -14043,17 +14070,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E23" s="77"/>
       <c r="F23" s="113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="76" t="s">
         <v>44</v>
@@ -14064,13 +14091,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E24" s="71"/>
       <c r="F24" s="75" t="s">
@@ -14085,17 +14112,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="76" t="s">
         <v>44</v>
@@ -14106,20 +14133,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -14127,20 +14154,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -14174,7 +14201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14192,46 +14221,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -14254,24 +14283,24 @@
     <row r="6" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="82"/>
       <c r="C6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="82"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>72</v>
@@ -14281,80 +14310,80 @@
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="82"/>
       <c r="C8" s="67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="85"/>
       <c r="C9" s="98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E9" s="98"/>
       <c r="F9" s="67" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H9" s="98"/>
     </row>
     <row r="10" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="82"/>
       <c r="C10" s="67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E10" s="67"/>
       <c r="F10" s="67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="67" t="s">
         <v>52</v>
       </c>
@@ -14375,7 +14404,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="68" t="s">
         <v>58</v>
       </c>
@@ -14394,7 +14423,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="139"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="68" t="s">
         <v>62</v>
       </c>
@@ -14409,11 +14438,11 @@
         <v>64</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="68" t="s">
         <v>66</v>
       </c>
@@ -14430,626 +14459,626 @@
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="139"/>
-      <c r="C16" s="141" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
     </row>
     <row r="17" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G17" s="81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" s="81"/>
       <c r="F19" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="81"/>
       <c r="F20" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="133"/>
+      <c r="C21" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="81" t="s">
         <v>218</v>
-      </c>
-      <c r="H20" s="81"/>
-    </row>
-    <row r="21" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="139"/>
-      <c r="C21" s="90" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>220</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="139"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="90" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E22" s="81"/>
       <c r="F22" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="139"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="139"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="90" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H24" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="139"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E25" s="81"/>
       <c r="F25" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H25" s="81"/>
     </row>
     <row r="26" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="139"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="81"/>
       <c r="F26" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" s="81"/>
     </row>
     <row r="27" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E27" s="81"/>
       <c r="F27" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="139"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G28" s="81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H28" s="81"/>
     </row>
     <row r="29" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="139"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="139"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E30" s="81"/>
       <c r="F30" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="H30" s="81" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="31" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="139"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" s="81"/>
       <c r="F31" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G31" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H31" s="81"/>
     </row>
     <row r="32" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="139"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G32" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="81"/>
+    </row>
+    <row r="33" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="133"/>
+      <c r="C33" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="81" t="s">
         <v>236</v>
-      </c>
-      <c r="H32" s="81"/>
-    </row>
-    <row r="33" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="139"/>
-      <c r="C33" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="81" t="s">
-        <v>238</v>
       </c>
       <c r="E33" s="81"/>
       <c r="F33" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="139"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="81"/>
       <c r="F34" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="139"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E35" s="81"/>
       <c r="F35" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" s="81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="139"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E36" s="81"/>
       <c r="F36" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="139"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="81"/>
       <c r="F37" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G37" s="81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="139"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="81"/>
       <c r="F38" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G38" s="81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H38" s="81"/>
     </row>
     <row r="39" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="139"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E39" s="81"/>
       <c r="F39" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="81"/>
     </row>
     <row r="40" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="139"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D40" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" s="81"/>
       <c r="F40" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G40" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H40" s="81"/>
     </row>
     <row r="41" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="139"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D41" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E41" s="81"/>
       <c r="F41" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G41" s="81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="139"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E42" s="81"/>
       <c r="F42" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G42" s="81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="139"/>
+      <c r="B43" s="133"/>
       <c r="C43" s="90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E43" s="81"/>
       <c r="F43" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G43" s="81" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H43" s="81"/>
     </row>
     <row r="44" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="139"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G44" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H44" s="81"/>
     </row>
     <row r="45" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="139"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E45" s="81"/>
       <c r="F45" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G45" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="H45" s="81" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="46" spans="2:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="139"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E46" s="81"/>
       <c r="F46" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G46" s="81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H46" s="81"/>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="139"/>
-      <c r="C47" s="142" t="s">
-        <v>291</v>
-      </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="136" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="139"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
     </row>
     <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="139"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
     </row>
     <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="139"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
     </row>
     <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="139"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
     </row>
     <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="139"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
     </row>
     <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="139"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="143" t="s">
+      <c r="D53" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:B53"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C47:H52"/>
-    <mergeCell ref="D53:H53"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B11:B53"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C47:H52"/>
+    <mergeCell ref="D53:H53"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15070,8 +15099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="A1:I38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15088,46 +15117,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="133"/>
-      <c r="C3" s="135" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -15150,24 +15179,24 @@
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="82"/>
       <c r="C6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="82"/>
       <c r="C7" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>72</v>
@@ -15177,42 +15206,42 @@
         <v>63</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="82"/>
       <c r="C8" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="67" t="s">
         <v>52</v>
       </c>
@@ -15233,7 +15262,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="80" t="s">
         <v>58</v>
       </c>
@@ -15252,7 +15281,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="80" t="s">
         <v>62</v>
       </c>
@@ -15267,11 +15296,11 @@
         <v>64</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="80" t="s">
         <v>66</v>
       </c>
@@ -15288,380 +15317,380 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="139"/>
-      <c r="C14" s="141" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" s="84" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="81"/>
       <c r="F15" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="81"/>
       <c r="F16" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="90" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G17" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H18" s="81" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" s="81"/>
       <c r="F19" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E20" s="81"/>
       <c r="F20" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H20" s="81"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="139"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E22" s="81"/>
       <c r="F22" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="139"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="90" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="139"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H24" s="81"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="139"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" s="81"/>
       <c r="F25" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="139"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E26" s="81"/>
       <c r="F26" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E27" s="81"/>
       <c r="F27" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="139"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G28" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H28" s="81"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="139"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="81" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="139"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="81"/>
       <c r="F30" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30" s="81"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="139"/>
-      <c r="C31" s="142" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="139"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="139"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="139"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="139"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="139"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B37"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C31:H36"/>
-    <mergeCell ref="D37:H37"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:B37"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C31:H36"/>
+    <mergeCell ref="D37:H37"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15683,7 +15712,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15697,46 +15726,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="144" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="133"/>
-      <c r="C3" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="150" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -15757,56 +15786,56 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="133"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="83" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="83"/>
       <c r="F7" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -15827,7 +15856,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="80" t="s">
         <v>58</v>
       </c>
@@ -15846,7 +15875,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="80" t="s">
         <v>62</v>
       </c>
@@ -15865,7 +15894,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="80" t="s">
         <v>66</v>
       </c>
@@ -15882,98 +15911,98 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139"/>
-      <c r="C13" s="141" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="139"/>
-      <c r="C14" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -15994,7 +16023,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:I21"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16016,49 +16045,49 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="144" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="84"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="147" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="148" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="150" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="84"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -16080,59 +16109,59 @@
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
-      <c r="B7" s="133"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="83" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="83"/>
       <c r="F7" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
@@ -16154,7 +16183,7 @@
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="80" t="s">
         <v>58</v>
       </c>
@@ -16174,7 +16203,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="80" t="s">
         <v>62</v>
       </c>
@@ -16194,7 +16223,7 @@
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
-      <c r="B12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="80" t="s">
         <v>66</v>
       </c>
@@ -16212,105 +16241,105 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="141" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="84"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="84"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H19"/>
-    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H19"/>
+    <mergeCell ref="D20:H20"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -16330,7 +16359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16351,46 +16382,46 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="133"/>
-      <c r="C3" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -16411,37 +16442,37 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="139"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="67" t="s">
         <v>52</v>
       </c>
@@ -16462,7 +16493,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="68" t="s">
         <v>58</v>
       </c>
@@ -16481,7 +16512,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="68" t="s">
         <v>62</v>
       </c>
@@ -16493,14 +16524,14 @@
         <v>63</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="68" t="s">
         <v>66</v>
       </c>
@@ -16518,55 +16549,55 @@
     </row>
     <row r="12" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="154"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="154"/>
       <c r="C13" s="96" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="87" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="154"/>
       <c r="C14" s="96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E14" s="96"/>
       <c r="F14" s="87" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="97" t="s">
         <v>308</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="154"/>
       <c r="C15" s="96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="87" t="s">
         <v>59</v>
@@ -16576,67 +16607,67 @@
         <v>60</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="154"/>
       <c r="C16" s="96" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E16" s="96"/>
       <c r="F16" s="87" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="154"/>
       <c r="C17" s="96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="87" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="154"/>
       <c r="C18" s="96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="87" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="97" t="s">
         <v>308</v>
-      </c>
-      <c r="H18" s="97" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="154"/>
       <c r="C19" s="96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" s="87" t="s">
         <v>59</v>
@@ -16646,109 +16677,109 @@
         <v>63</v>
       </c>
       <c r="G19" s="96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" s="89" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="154"/>
       <c r="C20" s="96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="87" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="96" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="139"/>
-      <c r="C21" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="139"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="139"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:B27"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C21:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C21:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
@@ -16769,7 +16800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16792,52 +16825,52 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="89"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="89"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="89"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
-      <c r="B5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="67" t="s">
         <v>52</v>
       </c>
@@ -16860,22 +16893,22 @@
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="89"/>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="89"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="67" t="s">
         <v>52</v>
       </c>
@@ -16898,7 +16931,7 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="89"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="87" t="s">
         <v>58</v>
       </c>
@@ -16919,7 +16952,7 @@
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="87" t="s">
         <v>62</v>
       </c>
@@ -16931,7 +16964,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>65</v>
@@ -16940,7 +16973,7 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="87" t="s">
         <v>66</v>
       </c>
@@ -16960,116 +16993,116 @@
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
       <c r="B11" s="154"/>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
       <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
       <c r="B12" s="154"/>
       <c r="C12" s="96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="87" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="89"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="142" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
       <c r="I13" s="89"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -17085,17 +17118,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H18"/>
+    <mergeCell ref="D19:H19"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H18"/>
-    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="1">
